--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1628350.059454605</v>
+        <v>1627052.733295488</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5932966.508100474</v>
+        <v>5932966.508100476</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1847921.546297497</v>
+        <v>1847921.546297498</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>371.1881062918927</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>99.48210966991925</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>119.2878878475945</v>
       </c>
       <c r="F3" t="n">
         <v>107.8702810193205</v>
@@ -794,7 +794,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531638</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.6303472002615</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>166.6895325984409</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>179.2083765321118</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>57.12282641499718</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3773027531638</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2.92664618209945</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>227.3946661659844</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>182.5938691731191</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
@@ -1141,10 +1141,10 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>101.9231969460059</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1299,7 +1299,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>139.2913647881184</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -1311,7 +1311,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>44.74588807992508</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>22.92681701721022</v>
+        <v>191.9284587841973</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1530,13 +1530,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>16.32141392114575</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -1545,7 +1545,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>24.14731377387276</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>363.9585094926619</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>397.3360934353472</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1627,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>192.5600822797547</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>256.4446824253675</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>347.3139210536805</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1864,7 +1864,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I17" t="n">
-        <v>80.20209470631104</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>130.8037420209043</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.3841955395356</v>
@@ -1912,7 +1912,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>127.212045867995</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>105.8468482287003</v>
       </c>
       <c r="H18" t="n">
-        <v>69.33120551494848</v>
+        <v>69.33120551494849</v>
       </c>
       <c r="I18" t="n">
-        <v>18.01521888122694</v>
+        <v>18.01521888122696</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>105.5474181070439</v>
+        <v>105.547418107044</v>
       </c>
       <c r="T18" t="n">
         <v>157.4527394715024</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>51.13380285456397</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5163818121864</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>113.3329517744758</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>81.65448688094153</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>236.890456040183</v>
       </c>
       <c r="U19" t="n">
-        <v>272.1751587311259</v>
+        <v>279.9668111419812</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>147.1048474724532</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>404.5038856354681</v>
@@ -2101,7 +2101,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I20" t="n">
-        <v>80.20209470631109</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>130.8037420209043</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.3841955395356</v>
+        <v>160.6747718133549</v>
       </c>
       <c r="U20" t="n">
         <v>254.4789175726347</v>
@@ -2180,7 +2180,7 @@
         <v>69.33120551494849</v>
       </c>
       <c r="I21" t="n">
-        <v>18.01521888122695</v>
+        <v>18.01521888122696</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5163818121864</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>113.3329517744758</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>81.65448688094155</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.4559799036662</v>
+        <v>51.13380285456399</v>
       </c>
       <c r="T22" t="n">
         <v>236.890456040183</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9668111419812</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.501293271111</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I23" t="n">
-        <v>80.20209470631104</v>
+        <v>80.20209470631106</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>130.8037420209043</v>
       </c>
       <c r="T23" t="n">
         <v>219.3841955395356</v>
       </c>
       <c r="U23" t="n">
-        <v>115.5673991401426</v>
+        <v>254.4789175726347</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>110.2074374027874</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>105.5474181070439</v>
+        <v>105.547418107044</v>
       </c>
       <c r="T24" t="n">
         <v>157.4527394715024</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5163818121864</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S25" t="n">
         <v>183.4559799036662</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.890456040183</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9668111419812</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>107.3079378686393</v>
       </c>
       <c r="W25" t="n">
-        <v>65.24917051470243</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>404.5038856354681</v>
       </c>
       <c r="H26" t="n">
-        <v>116.8820111993051</v>
+        <v>306.3951769463901</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>130.8037420209043</v>
       </c>
       <c r="T26" t="n">
-        <v>219.3841955395356</v>
+        <v>29.87102979245079</v>
       </c>
       <c r="U26" t="n">
         <v>254.4789175726347</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>105.5474181070439</v>
+        <v>105.547418107044</v>
       </c>
       <c r="T27" t="n">
         <v>157.4527394715024</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>51.13380285456441</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.5038856354681</v>
+        <v>345.7944619092881</v>
       </c>
       <c r="H29" t="n">
         <v>306.3951769463901</v>
       </c>
       <c r="I29" t="n">
-        <v>29.87102979245187</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.8037420209043</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.3841955395356</v>
       </c>
       <c r="U29" t="n">
         <v>254.4789175726347</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>105.5474181070439</v>
+        <v>105.547418107044</v>
       </c>
       <c r="T30" t="n">
         <v>157.4527394715024</v>
@@ -2952,22 +2952,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5163818121864</v>
+        <v>147.6360311519723</v>
       </c>
       <c r="H31" t="n">
-        <v>147.5645421535798</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>113.3329517744758</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>81.65448688094153</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T31" t="n">
-        <v>7.917618505344407</v>
+        <v>236.890456040183</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>355.7879029539848</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3049,7 +3049,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I32" t="n">
-        <v>80.20209470631104</v>
+        <v>80.20209470631106</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>130.8037420209043</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.3841955395356</v>
       </c>
       <c r="U32" t="n">
         <v>254.4789175726347</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>76.62391866348868</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>105.5474181070439</v>
+        <v>105.547418107044</v>
       </c>
       <c r="T33" t="n">
         <v>157.4527394715024</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3207,7 +3207,7 @@
         <v>147.5645421535798</v>
       </c>
       <c r="I34" t="n">
-        <v>113.3329517744758</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>123.6172997062574</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>89.57210538628574</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3283,10 +3283,10 @@
         <v>404.5038856354681</v>
       </c>
       <c r="H35" t="n">
-        <v>291.1588340656293</v>
+        <v>306.3951769463901</v>
       </c>
       <c r="I35" t="n">
-        <v>80.20209470631104</v>
+        <v>80.20209470631106</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>219.3841955395356</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.4789175726347</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>110.2074374027883</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>105.5474181070439</v>
+        <v>105.547418107044</v>
       </c>
       <c r="T36" t="n">
         <v>157.4527394715024</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5163818121864</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.5645421535798</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>113.3329517744758</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>279.9668111419812</v>
       </c>
       <c r="V37" t="n">
-        <v>155.4268775142803</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>136.6031683948755</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>136.4037074144498</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3523,7 +3523,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I38" t="n">
-        <v>80.20209470631102</v>
+        <v>80.20209470631104</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.8037420209043</v>
+        <v>80.47267710704416</v>
       </c>
       <c r="T38" t="n">
-        <v>219.3841955395356</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.4789175726347</v>
@@ -3602,7 +3602,7 @@
         <v>69.33120551494848</v>
       </c>
       <c r="I39" t="n">
-        <v>18.01521888122692</v>
+        <v>18.01521888122694</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>129.8260721015134</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5163818121864</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.5645421535798</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>113.3329517744758</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>51.13380285456444</v>
       </c>
       <c r="T40" t="n">
         <v>236.890456040183</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9668111419812</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3742,10 +3742,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>54.30453038014807</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3760,7 +3760,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I41" t="n">
-        <v>80.20209470631102</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>219.3841955395356</v>
       </c>
       <c r="U41" t="n">
-        <v>222.9772990744789</v>
+        <v>254.4789175726347</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3839,7 +3839,7 @@
         <v>69.33120551494848</v>
       </c>
       <c r="I42" t="n">
-        <v>18.01521888122692</v>
+        <v>18.01521888122694</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5163818121864</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.5645421535798</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T43" t="n">
-        <v>155.4316131598965</v>
+        <v>236.890456040183</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9668111419812</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>174.9983633296183</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3997,7 +3997,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I44" t="n">
-        <v>80.20209470631102</v>
+        <v>80.20209470631104</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>130.8037420209043</v>
       </c>
       <c r="T44" t="n">
-        <v>219.3841955395356</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4789175726347</v>
+        <v>41.94220400614485</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>344.9290950715481</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>69.33120551494848</v>
       </c>
       <c r="I45" t="n">
-        <v>18.01521888122692</v>
+        <v>18.01521888122694</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>51.13380285456433</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>154.3774199545965</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>974.6830684215696</v>
+        <v>1252.968975398865</v>
       </c>
       <c r="C2" t="n">
-        <v>564.5584777348397</v>
+        <v>1246.88478875254</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>1246.461262886004</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973563</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636813</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>1329.636426430006</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>2047.697635790536</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.293889628578</v>
+        <v>2047.697635790536</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790536</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790536</v>
       </c>
       <c r="R2" t="n">
-        <v>2088.254281480102</v>
+        <v>2088.254281480101</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>2088.254281480101</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>1866.04779742696</v>
       </c>
       <c r="U2" t="n">
-        <v>1866.047797426961</v>
+        <v>1608.98730568647</v>
       </c>
       <c r="V2" t="n">
-        <v>1765.560817962396</v>
+        <v>1259.149751022951</v>
       </c>
       <c r="W2" t="n">
-        <v>1381.800517097565</v>
+        <v>1259.149751022951</v>
       </c>
       <c r="X2" t="n">
-        <v>1381.800517097565</v>
+        <v>1259.149751022951</v>
       </c>
       <c r="Y2" t="n">
-        <v>980.863844045655</v>
+        <v>1259.149751022951</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161357</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650813</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844738</v>
       </c>
       <c r="E3" t="n">
         <v>349.2108824768026</v>
@@ -4403,46 +4403,46 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960205</v>
+        <v>675.1644281008377</v>
       </c>
       <c r="M3" t="n">
-        <v>537.7254774811266</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N3" t="n">
-        <v>1054.568412147452</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O3" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117471</v>
       </c>
       <c r="R3" t="n">
-        <v>2088.254281480102</v>
+        <v>2088.254281480101</v>
       </c>
       <c r="S3" t="n">
-        <v>1980.264271594411</v>
+        <v>1980.26427159441</v>
       </c>
       <c r="T3" t="n">
-        <v>1820.922407781419</v>
+        <v>1820.922407781418</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V3" t="n">
         <v>1409.860069912671</v>
@@ -4451,10 +4451,10 @@
         <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
-        <v>1020.300919787893</v>
+        <v>1020.300919787892</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517223</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>478.8119591581028</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="C4" t="n">
-        <v>307.7185867198193</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D4" t="n">
-        <v>307.7185867198193</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E4" t="n">
-        <v>307.7185867198193</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F4" t="n">
-        <v>307.7185867198193</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4524,16 +4524,16 @@
         <v>862.4253276531883</v>
       </c>
       <c r="V4" t="n">
-        <v>588.5395825927103</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="W4" t="n">
-        <v>588.5395825927103</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="X4" t="n">
-        <v>588.5395825927103</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="Y4" t="n">
-        <v>588.5395825927103</v>
+        <v>694.0520624022379</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>881.5511617534476</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="C5" t="n">
-        <v>471.4265710667177</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="D5" t="n">
-        <v>471.0030452001823</v>
+        <v>728.1635060160443</v>
       </c>
       <c r="E5" t="n">
-        <v>460.703233757483</v>
+        <v>313.823290532941</v>
       </c>
       <c r="F5" t="n">
-        <v>443.7132257515746</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
         <v>128.1168483125289</v>
@@ -4567,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1688317915616</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>1014.011766457887</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>1014.011766457887</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4600,19 +4600,19 @@
         <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1695.912714533713</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1346.075159870194</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>1288.375335208581</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X5" t="n">
-        <v>887.731937377533</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y5" t="n">
-        <v>887.731937377533</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>751.4208778585605</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N6" t="n">
-        <v>1268.263812524886</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="O6" t="n">
-        <v>1268.263812524886</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P6" t="n">
         <v>1738.409816796119</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.7185867198193</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C7" t="n">
-        <v>307.7185867198193</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1568.207773985705</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1381.816005865615</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1381.816005865615</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1099.01785841174</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V7" t="n">
-        <v>825.1321133512615</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W7" t="n">
-        <v>546.0624488601359</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="X7" t="n">
-        <v>307.7185867198193</v>
+        <v>784.7885077502552</v>
       </c>
       <c r="Y7" t="n">
-        <v>307.7185867198193</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.3313057386429</v>
+        <v>166.6022603407614</v>
       </c>
       <c r="C8" t="n">
-        <v>882.247119092317</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D8" t="n">
-        <v>881.8235932257816</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E8" t="n">
-        <v>467.4833777426783</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4807,16 +4807,16 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
         <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N8" t="n">
-        <v>1329.636426430007</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O8" t="n">
         <v>1726.536628995245</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>1985.301557292217</v>
       </c>
       <c r="U8" t="n">
-        <v>1473.706230480572</v>
+        <v>1728.241065551728</v>
       </c>
       <c r="V8" t="n">
-        <v>1473.706230480572</v>
+        <v>1378.403510888208</v>
       </c>
       <c r="W8" t="n">
-        <v>1473.706230480572</v>
+        <v>1378.403510888208</v>
       </c>
       <c r="X8" t="n">
-        <v>1473.706230480572</v>
+        <v>977.7601130571608</v>
       </c>
       <c r="Y8" t="n">
-        <v>1072.769557428662</v>
+        <v>576.8234400052509</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L9" t="n">
-        <v>234.5779431922353</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M9" t="n">
-        <v>234.5779431922353</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N9" t="n">
-        <v>751.4208778585605</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O9" t="n">
-        <v>1268.263812524886</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
         <v>1708.850297433489</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1627.976768299535</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C10" t="n">
-        <v>1456.883395861251</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D10" t="n">
-        <v>1297.388751184161</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E10" t="n">
-        <v>1156.690402913334</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F10" t="n">
-        <v>992.0592770239257</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G10" t="n">
-        <v>824.8088859494691</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H10" t="n">
-        <v>675.2014307549257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M10" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N10" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P10" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q10" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>2088.254281480102</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1901.862513360013</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1901.862513360013</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1901.862513360013</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="V10" t="n">
-        <v>1627.976768299535</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="W10" t="n">
-        <v>1627.976768299535</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="X10" t="n">
-        <v>1627.976768299535</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="Y10" t="n">
-        <v>1627.976768299535</v>
+        <v>1014.752890035065</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5074,19 +5074,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W11" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X11" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y11" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M12" t="n">
-        <v>1392.027034650488</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N12" t="n">
-        <v>2139.732893541123</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3652.247154000464</v>
+        <v>449.516440688703</v>
       </c>
       <c r="C13" t="n">
-        <v>3481.153781562181</v>
+        <v>449.516440688703</v>
       </c>
       <c r="D13" t="n">
-        <v>3481.153781562181</v>
+        <v>449.516440688703</v>
       </c>
       <c r="E13" t="n">
-        <v>3464.667504874155</v>
+        <v>449.516440688703</v>
       </c>
       <c r="F13" t="n">
-        <v>3300.036378984746</v>
+        <v>284.8853147992943</v>
       </c>
       <c r="G13" t="n">
-        <v>3132.785987910289</v>
+        <v>117.6349237248377</v>
       </c>
       <c r="H13" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>4576.912166206539</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>4576.912166206539</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>4303.026421146061</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W13" t="n">
-        <v>4303.026421146061</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="X13" t="n">
-        <v>4064.682559005744</v>
+        <v>861.9518456939827</v>
       </c>
       <c r="Y13" t="n">
-        <v>3839.946860394509</v>
+        <v>637.2161470827474</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C14" t="n">
-        <v>1734.602869382415</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T14" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N15" t="n">
-        <v>1056.371818948615</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O15" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
         <v>1760.328909494509</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>569.5961886367127</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C16" t="n">
-        <v>569.5961886367127</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D16" t="n">
-        <v>410.1015439596227</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1015439596227</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F16" t="n">
-        <v>410.1015439596227</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G16" t="n">
-        <v>242.8511528851661</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1188.588721672261</v>
       </c>
       <c r="V16" t="n">
-        <v>828.6312213896092</v>
+        <v>914.7029766117832</v>
       </c>
       <c r="W16" t="n">
-        <v>569.5961886367127</v>
+        <v>635.6333121206576</v>
       </c>
       <c r="X16" t="n">
-        <v>569.5961886367127</v>
+        <v>397.289449980341</v>
       </c>
       <c r="Y16" t="n">
-        <v>569.5961886367127</v>
+        <v>397.289449980341</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2545.638680812119</v>
+        <v>2405.324015728793</v>
       </c>
       <c r="C17" t="n">
-        <v>2135.514090125389</v>
+        <v>2054.501873250328</v>
       </c>
       <c r="D17" t="n">
-        <v>1731.05016021845</v>
+        <v>1650.037943343388</v>
       </c>
       <c r="E17" t="n">
-        <v>1316.709944735346</v>
+        <v>1235.697727860285</v>
       </c>
       <c r="F17" t="n">
-        <v>895.679532689034</v>
+        <v>814.6673158139722</v>
       </c>
       <c r="G17" t="n">
-        <v>487.0897492188641</v>
+        <v>406.0775323438024</v>
       </c>
       <c r="H17" t="n">
-        <v>177.5996714952378</v>
+        <v>96.58745462017608</v>
       </c>
       <c r="I17" t="n">
-        <v>96.58745462017609</v>
+        <v>96.58745462017608</v>
       </c>
       <c r="J17" t="n">
-        <v>362.2940686653947</v>
+        <v>362.2940686653945</v>
       </c>
       <c r="K17" t="n">
-        <v>917.7207759499374</v>
+        <v>917.7207759499372</v>
       </c>
       <c r="L17" t="n">
         <v>1651.733671893702</v>
       </c>
       <c r="M17" t="n">
-        <v>2451.887804812203</v>
+        <v>2451.887804812202</v>
       </c>
       <c r="N17" t="n">
         <v>3229.290047365233</v>
@@ -5533,34 +5533,34 @@
         <v>3895.792320580214</v>
       </c>
       <c r="P17" t="n">
-        <v>4444.469243587424</v>
+        <v>4444.469243587423</v>
       </c>
       <c r="Q17" t="n">
         <v>4780.289126484126</v>
       </c>
       <c r="R17" t="n">
-        <v>4829.372731008804</v>
+        <v>4829.372731008803</v>
       </c>
       <c r="S17" t="n">
-        <v>4697.247739068497</v>
+        <v>4829.372731008803</v>
       </c>
       <c r="T17" t="n">
-        <v>4475.647541553814</v>
+        <v>4607.772533494121</v>
       </c>
       <c r="U17" t="n">
-        <v>4218.598129864285</v>
+        <v>4350.723121804591</v>
       </c>
       <c r="V17" t="n">
-        <v>3868.760575200765</v>
+        <v>4000.885567141072</v>
       </c>
       <c r="W17" t="n">
-        <v>3485.000274335934</v>
+        <v>3617.12526627624</v>
       </c>
       <c r="X17" t="n">
-        <v>3084.356876504886</v>
+        <v>3216.481868445193</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.859860476608</v>
+        <v>2815.545195393282</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>114.7846454092942</v>
       </c>
       <c r="I18" t="n">
-        <v>96.58745462017609</v>
+        <v>96.58745462017608</v>
       </c>
       <c r="J18" t="n">
-        <v>296.2622257742189</v>
+        <v>296.2622257742188</v>
       </c>
       <c r="K18" t="n">
-        <v>763.796585316753</v>
+        <v>763.7965853167527</v>
       </c>
       <c r="L18" t="n">
-        <v>1440.654639430124</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="M18" t="n">
-        <v>1440.654639430124</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="N18" t="n">
-        <v>1440.654639430124</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="O18" t="n">
-        <v>1440.654639430124</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="P18" t="n">
-        <v>1778.939847333784</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="Q18" t="n">
-        <v>2138.055429104457</v>
+        <v>2103.986497513983</v>
       </c>
       <c r="R18" t="n">
         <v>2138.055429104457</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.7522803891111</v>
+        <v>96.58745462017608</v>
       </c>
       <c r="C19" t="n">
-        <v>698.6589079508276</v>
+        <v>96.58745462017608</v>
       </c>
       <c r="D19" t="n">
-        <v>539.1642632737376</v>
+        <v>96.58745462017608</v>
       </c>
       <c r="E19" t="n">
-        <v>378.2534481420571</v>
+        <v>96.58745462017608</v>
       </c>
       <c r="F19" t="n">
-        <v>378.2534481420571</v>
+        <v>96.58745462017608</v>
       </c>
       <c r="G19" t="n">
-        <v>211.0651836853031</v>
+        <v>96.58745462017608</v>
       </c>
       <c r="H19" t="n">
-        <v>211.0651836853031</v>
+        <v>96.58745462017608</v>
       </c>
       <c r="I19" t="n">
-        <v>96.58745462017609</v>
+        <v>96.58745462017608</v>
       </c>
       <c r="J19" t="n">
-        <v>114.974948094715</v>
+        <v>114.9749480947149</v>
       </c>
       <c r="K19" t="n">
-        <v>276.6016213494227</v>
+        <v>276.6016213494225</v>
       </c>
       <c r="L19" t="n">
-        <v>545.551448299124</v>
+        <v>545.5514482991238</v>
       </c>
       <c r="M19" t="n">
-        <v>844.360335726814</v>
+        <v>844.3603357268137</v>
       </c>
       <c r="N19" t="n">
-        <v>1134.516994361132</v>
+        <v>1134.516994361131</v>
       </c>
       <c r="O19" t="n">
         <v>1402.68417153728</v>
       </c>
       <c r="P19" t="n">
-        <v>1615.724016557157</v>
+        <v>1615.724016557156</v>
       </c>
       <c r="Q19" t="n">
-        <v>1686.350778495785</v>
+        <v>1686.350778495784</v>
       </c>
       <c r="R19" t="n">
-        <v>1603.871498818066</v>
+        <v>1686.350778495784</v>
       </c>
       <c r="S19" t="n">
-        <v>1418.562428208302</v>
+        <v>1686.350778495784</v>
       </c>
       <c r="T19" t="n">
-        <v>1418.562428208302</v>
+        <v>1447.067489566307</v>
       </c>
       <c r="U19" t="n">
-        <v>1143.638025449589</v>
+        <v>1164.272730837033</v>
       </c>
       <c r="V19" t="n">
-        <v>869.7522803891111</v>
+        <v>890.3869857765546</v>
       </c>
       <c r="W19" t="n">
-        <v>869.7522803891111</v>
+        <v>611.317321285429</v>
       </c>
       <c r="X19" t="n">
-        <v>869.7522803891111</v>
+        <v>372.9734591451124</v>
       </c>
       <c r="Y19" t="n">
-        <v>869.7522803891111</v>
+        <v>148.2377605338771</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2273.199023788487</v>
+        <v>2464.626463937057</v>
       </c>
       <c r="C20" t="n">
-        <v>1863.074433101757</v>
+        <v>2054.501873250328</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.610503194817</v>
+        <v>1650.037943343388</v>
       </c>
       <c r="E20" t="n">
-        <v>1044.270287711714</v>
+        <v>1235.697727860285</v>
       </c>
       <c r="F20" t="n">
-        <v>895.679532689034</v>
+        <v>814.6673158139722</v>
       </c>
       <c r="G20" t="n">
-        <v>487.0897492188641</v>
+        <v>406.0775323438024</v>
       </c>
       <c r="H20" t="n">
-        <v>177.5996714952378</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="I20" t="n">
         <v>96.58745462017609</v>
       </c>
       <c r="J20" t="n">
-        <v>362.2940686653947</v>
+        <v>362.2940686653956</v>
       </c>
       <c r="K20" t="n">
-        <v>917.7207759499374</v>
+        <v>917.7207759499379</v>
       </c>
       <c r="L20" t="n">
         <v>1651.733671893703</v>
@@ -5779,25 +5779,25 @@
         <v>4829.372731008804</v>
       </c>
       <c r="S20" t="n">
-        <v>4697.247739068497</v>
+        <v>4829.372731008804</v>
       </c>
       <c r="T20" t="n">
-        <v>4475.647541553814</v>
+        <v>4667.074981702385</v>
       </c>
       <c r="U20" t="n">
-        <v>4218.598129864285</v>
+        <v>4410.025570012855</v>
       </c>
       <c r="V20" t="n">
-        <v>3868.760575200765</v>
+        <v>4060.188015349336</v>
       </c>
       <c r="W20" t="n">
-        <v>3485.000274335934</v>
+        <v>3676.427714484505</v>
       </c>
       <c r="X20" t="n">
-        <v>3084.356876504886</v>
+        <v>3275.784316653457</v>
       </c>
       <c r="Y20" t="n">
-        <v>2683.420203452976</v>
+        <v>2874.847643601547</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>96.58745462017609</v>
       </c>
       <c r="J21" t="n">
-        <v>96.58745462017609</v>
+        <v>296.2622257742188</v>
       </c>
       <c r="K21" t="n">
-        <v>96.58745462017609</v>
+        <v>296.2622257742188</v>
       </c>
       <c r="L21" t="n">
-        <v>773.4455087335467</v>
+        <v>973.1202798875893</v>
       </c>
       <c r="M21" t="n">
-        <v>773.4455087335467</v>
+        <v>973.1202798875893</v>
       </c>
       <c r="N21" t="n">
-        <v>1665.993374488774</v>
+        <v>1865.668145642817</v>
       </c>
       <c r="O21" t="n">
-        <v>2138.055429104457</v>
+        <v>1865.668145642817</v>
       </c>
       <c r="P21" t="n">
-        <v>2138.055429104457</v>
+        <v>2103.986497513983</v>
       </c>
       <c r="Q21" t="n">
-        <v>2138.055429104457</v>
+        <v>2103.986497513983</v>
       </c>
       <c r="R21" t="n">
         <v>2138.055429104457</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>713.9779464697494</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="C22" t="n">
-        <v>542.8845740314659</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="D22" t="n">
-        <v>542.8845740314659</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="E22" t="n">
-        <v>542.8845740314659</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="F22" t="n">
-        <v>378.2534481420572</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="G22" t="n">
-        <v>211.0651836853032</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="H22" t="n">
-        <v>211.0651836853032</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="I22" t="n">
         <v>96.58745462017609</v>
@@ -5916,46 +5916,46 @@
         <v>276.6016213494225</v>
       </c>
       <c r="L22" t="n">
-        <v>545.5514482991239</v>
+        <v>545.5514482991238</v>
       </c>
       <c r="M22" t="n">
-        <v>844.3603357268139</v>
+        <v>844.3603357268137</v>
       </c>
       <c r="N22" t="n">
-        <v>1134.516994361132</v>
+        <v>1134.516994361131</v>
       </c>
       <c r="O22" t="n">
         <v>1402.68417153728</v>
       </c>
       <c r="P22" t="n">
-        <v>1615.724016557157</v>
+        <v>1615.724016557156</v>
       </c>
       <c r="Q22" t="n">
-        <v>1686.350778495785</v>
+        <v>1686.350778495784</v>
       </c>
       <c r="R22" t="n">
-        <v>1603.871498818066</v>
+        <v>1686.350778495784</v>
       </c>
       <c r="S22" t="n">
-        <v>1418.562428208302</v>
+        <v>1634.700472582083</v>
       </c>
       <c r="T22" t="n">
-        <v>1179.279139278824</v>
+        <v>1395.417183652606</v>
       </c>
       <c r="U22" t="n">
-        <v>1179.279139278824</v>
+        <v>1112.622424923332</v>
       </c>
       <c r="V22" t="n">
-        <v>905.3933942183464</v>
+        <v>838.7366798628536</v>
       </c>
       <c r="W22" t="n">
-        <v>905.3933942183464</v>
+        <v>559.667015371728</v>
       </c>
       <c r="X22" t="n">
-        <v>905.3933942183464</v>
+        <v>321.3231532314114</v>
       </c>
       <c r="Y22" t="n">
-        <v>713.9779464697494</v>
+        <v>96.58745462017609</v>
       </c>
     </row>
     <row r="23">
@@ -5995,10 +5995,10 @@
         <v>917.7207759499374</v>
       </c>
       <c r="L23" t="n">
-        <v>1651.733671893702</v>
+        <v>1651.733671893703</v>
       </c>
       <c r="M23" t="n">
-        <v>2451.887804812202</v>
+        <v>2451.887804812203</v>
       </c>
       <c r="N23" t="n">
         <v>3229.290047365233</v>
@@ -6016,16 +6016,16 @@
         <v>4829.372731008804</v>
       </c>
       <c r="S23" t="n">
-        <v>4829.372731008804</v>
+        <v>4697.247739068497</v>
       </c>
       <c r="T23" t="n">
-        <v>4607.772533494121</v>
+        <v>4475.647541553814</v>
       </c>
       <c r="U23" t="n">
-        <v>4491.037786887917</v>
+        <v>4218.598129864285</v>
       </c>
       <c r="V23" t="n">
-        <v>4141.200232224397</v>
+        <v>3868.760575200765</v>
       </c>
       <c r="W23" t="n">
         <v>3757.439931359566</v>
@@ -6068,25 +6068,25 @@
         <v>96.58745462017609</v>
       </c>
       <c r="J24" t="n">
-        <v>96.58745462017609</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K24" t="n">
-        <v>96.58745462017609</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L24" t="n">
-        <v>773.4455087335467</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="M24" t="n">
-        <v>1634.825298131318</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="N24" t="n">
-        <v>1634.825298131318</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="O24" t="n">
-        <v>2138.055429104457</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="P24" t="n">
-        <v>2138.055429104457</v>
+        <v>1778.939847333784</v>
       </c>
       <c r="Q24" t="n">
         <v>2138.055429104457</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>748.8123047751094</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="C25" t="n">
-        <v>748.8123047751094</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="D25" t="n">
-        <v>589.3176600980194</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="E25" t="n">
-        <v>428.4068449663388</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="F25" t="n">
-        <v>263.77571907693</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="G25" t="n">
         <v>96.58745462017609</v>
@@ -6153,10 +6153,10 @@
         <v>276.6016213494227</v>
       </c>
       <c r="L25" t="n">
-        <v>545.551448299124</v>
+        <v>545.5514482991239</v>
       </c>
       <c r="M25" t="n">
-        <v>844.360335726814</v>
+        <v>844.3603357268139</v>
       </c>
       <c r="N25" t="n">
         <v>1134.516994361132</v>
@@ -6171,28 +6171,28 @@
         <v>1686.350778495785</v>
       </c>
       <c r="R25" t="n">
-        <v>1686.350778495785</v>
+        <v>1603.871498818066</v>
       </c>
       <c r="S25" t="n">
-        <v>1501.041707886021</v>
+        <v>1418.562428208302</v>
       </c>
       <c r="T25" t="n">
-        <v>1501.041707886021</v>
+        <v>1179.279139278824</v>
       </c>
       <c r="U25" t="n">
-        <v>1501.041707886021</v>
+        <v>896.4843805495505</v>
       </c>
       <c r="V25" t="n">
-        <v>1227.155962825543</v>
+        <v>788.0925241165814</v>
       </c>
       <c r="W25" t="n">
-        <v>1161.247709780389</v>
+        <v>509.0228596254558</v>
       </c>
       <c r="X25" t="n">
-        <v>1161.247709780389</v>
+        <v>509.0228596254558</v>
       </c>
       <c r="Y25" t="n">
-        <v>936.5120111691538</v>
+        <v>284.2871610142205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2273.199023788487</v>
+        <v>2464.626463937057</v>
       </c>
       <c r="C26" t="n">
-        <v>1863.074433101757</v>
+        <v>2054.501873250328</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.610503194817</v>
+        <v>1650.037943343388</v>
       </c>
       <c r="E26" t="n">
-        <v>1044.270287711714</v>
+        <v>1235.697727860285</v>
       </c>
       <c r="F26" t="n">
-        <v>623.2398756654015</v>
+        <v>814.6673158139722</v>
       </c>
       <c r="G26" t="n">
-        <v>214.6500921952317</v>
+        <v>406.0775323438024</v>
       </c>
       <c r="H26" t="n">
         <v>96.58745462017609</v>
@@ -6226,16 +6226,16 @@
         <v>96.58745462017609</v>
       </c>
       <c r="J26" t="n">
-        <v>362.2940686653942</v>
+        <v>362.2940686653947</v>
       </c>
       <c r="K26" t="n">
-        <v>917.720775949937</v>
+        <v>917.7207759499374</v>
       </c>
       <c r="L26" t="n">
-        <v>1651.733671893702</v>
+        <v>1651.733671893703</v>
       </c>
       <c r="M26" t="n">
-        <v>2451.887804812202</v>
+        <v>2451.887804812203</v>
       </c>
       <c r="N26" t="n">
         <v>3229.290047365233</v>
@@ -6256,22 +6256,22 @@
         <v>4697.247739068497</v>
       </c>
       <c r="T26" t="n">
-        <v>4475.647541553814</v>
+        <v>4667.074981702385</v>
       </c>
       <c r="U26" t="n">
-        <v>4218.598129864285</v>
+        <v>4410.025570012855</v>
       </c>
       <c r="V26" t="n">
-        <v>3868.760575200765</v>
+        <v>4060.188015349336</v>
       </c>
       <c r="W26" t="n">
-        <v>3485.000274335934</v>
+        <v>3676.427714484505</v>
       </c>
       <c r="X26" t="n">
-        <v>3084.356876504886</v>
+        <v>3275.784316653457</v>
       </c>
       <c r="Y26" t="n">
-        <v>2683.420203452976</v>
+        <v>2874.847643601547</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>96.58745462017609</v>
       </c>
       <c r="J27" t="n">
-        <v>96.58745462017609</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K27" t="n">
-        <v>96.58745462017609</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L27" t="n">
-        <v>96.58745462017609</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="M27" t="n">
-        <v>957.9672440179473</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="N27" t="n">
-        <v>1850.515109773175</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="O27" t="n">
-        <v>1850.515109773175</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="P27" t="n">
-        <v>2138.055429104457</v>
+        <v>1778.939847333784</v>
       </c>
       <c r="Q27" t="n">
         <v>2138.055429104457</v>
@@ -6378,7 +6378,7 @@
         <v>148.2377605338775</v>
       </c>
       <c r="H28" t="n">
-        <v>96.58745462017609</v>
+        <v>148.2377605338775</v>
       </c>
       <c r="I28" t="n">
         <v>96.58745462017609</v>
@@ -6390,10 +6390,10 @@
         <v>276.6016213494227</v>
       </c>
       <c r="L28" t="n">
-        <v>545.551448299124</v>
+        <v>545.5514482991239</v>
       </c>
       <c r="M28" t="n">
-        <v>844.360335726814</v>
+        <v>844.3603357268139</v>
       </c>
       <c r="N28" t="n">
         <v>1134.516994361132</v>
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2494.79922130317</v>
+        <v>2405.324015728795</v>
       </c>
       <c r="C29" t="n">
-        <v>2084.67463061644</v>
+        <v>1995.199425042065</v>
       </c>
       <c r="D29" t="n">
-        <v>1680.210700709501</v>
+        <v>1590.735495135125</v>
       </c>
       <c r="E29" t="n">
-        <v>1265.870485226398</v>
+        <v>1176.395279652022</v>
       </c>
       <c r="F29" t="n">
-        <v>844.8400731800853</v>
+        <v>755.3648676057096</v>
       </c>
       <c r="G29" t="n">
-        <v>436.2502897099154</v>
+        <v>406.0775323438024</v>
       </c>
       <c r="H29" t="n">
-        <v>126.7602119862891</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="I29" t="n">
         <v>96.5874546201761</v>
       </c>
       <c r="J29" t="n">
-        <v>362.2940686653947</v>
+        <v>362.2940686653956</v>
       </c>
       <c r="K29" t="n">
-        <v>917.720775949937</v>
+        <v>917.7207759499379</v>
       </c>
       <c r="L29" t="n">
-        <v>1651.733671893702</v>
+        <v>1651.733671893703</v>
       </c>
       <c r="M29" t="n">
-        <v>2451.887804812202</v>
+        <v>2451.887804812203</v>
       </c>
       <c r="N29" t="n">
-        <v>3229.290047365233</v>
+        <v>3229.290047365234</v>
       </c>
       <c r="O29" t="n">
-        <v>3895.792320580214</v>
+        <v>3895.792320580215</v>
       </c>
       <c r="P29" t="n">
-        <v>4444.469243587424</v>
+        <v>4444.469243587425</v>
       </c>
       <c r="Q29" t="n">
         <v>4780.289126484127</v>
@@ -6490,25 +6490,25 @@
         <v>4829.372731008805</v>
       </c>
       <c r="S29" t="n">
-        <v>4697.247739068498</v>
+        <v>4829.372731008805</v>
       </c>
       <c r="T29" t="n">
-        <v>4697.247739068498</v>
+        <v>4607.772533494122</v>
       </c>
       <c r="U29" t="n">
-        <v>4440.198327378968</v>
+        <v>4350.723121804593</v>
       </c>
       <c r="V29" t="n">
-        <v>4090.360772715449</v>
+        <v>4000.885567141073</v>
       </c>
       <c r="W29" t="n">
-        <v>3706.600471850617</v>
+        <v>3617.125266276242</v>
       </c>
       <c r="X29" t="n">
-        <v>3305.95707401957</v>
+        <v>3216.481868445194</v>
       </c>
       <c r="Y29" t="n">
-        <v>2905.02040096766</v>
+        <v>2815.545195393284</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>96.5874546201761</v>
       </c>
       <c r="J30" t="n">
-        <v>96.5874546201761</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K30" t="n">
-        <v>96.5874546201761</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L30" t="n">
-        <v>96.5874546201761</v>
+        <v>1440.654639430124</v>
       </c>
       <c r="M30" t="n">
-        <v>957.9672440179473</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="N30" t="n">
-        <v>1850.515109773175</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="O30" t="n">
-        <v>2138.055429104457</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="P30" t="n">
-        <v>2138.055429104457</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="Q30" t="n">
-        <v>2138.055429104457</v>
+        <v>2103.986497513983</v>
       </c>
       <c r="R30" t="n">
         <v>2138.055429104457</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4326.460451875964</v>
+        <v>521.1033030108952</v>
       </c>
       <c r="C31" t="n">
-        <v>4155.36707943768</v>
+        <v>521.1033030108952</v>
       </c>
       <c r="D31" t="n">
-        <v>3995.872434760591</v>
+        <v>521.1033030108952</v>
       </c>
       <c r="E31" t="n">
-        <v>3834.96161962891</v>
+        <v>360.1924878792146</v>
       </c>
       <c r="F31" t="n">
-        <v>3670.330493739501</v>
+        <v>360.1924878792146</v>
       </c>
       <c r="G31" t="n">
-        <v>3503.142229282747</v>
+        <v>211.0651836853032</v>
       </c>
       <c r="H31" t="n">
-        <v>3354.087136198324</v>
+        <v>211.0651836853032</v>
       </c>
       <c r="I31" t="n">
-        <v>3239.609407133196</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J31" t="n">
-        <v>3257.996900607735</v>
+        <v>114.974948094715</v>
       </c>
       <c r="K31" t="n">
-        <v>3419.623573862443</v>
+        <v>276.6016213494227</v>
       </c>
       <c r="L31" t="n">
-        <v>3688.573400812144</v>
+        <v>545.5514482991239</v>
       </c>
       <c r="M31" t="n">
-        <v>3987.382288239834</v>
+        <v>844.3603357268139</v>
       </c>
       <c r="N31" t="n">
-        <v>4277.538946874152</v>
+        <v>1134.516994361132</v>
       </c>
       <c r="O31" t="n">
-        <v>4545.706124050301</v>
+        <v>1402.68417153728</v>
       </c>
       <c r="P31" t="n">
-        <v>4758.745969070177</v>
+        <v>1615.724016557157</v>
       </c>
       <c r="Q31" t="n">
-        <v>4829.372731008805</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="R31" t="n">
-        <v>4746.893451331087</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="S31" t="n">
-        <v>4746.893451331087</v>
+        <v>1501.041707886021</v>
       </c>
       <c r="T31" t="n">
-        <v>4738.895856881244</v>
+        <v>1261.758418956543</v>
       </c>
       <c r="U31" t="n">
-        <v>4738.895856881244</v>
+        <v>1261.758418956543</v>
       </c>
       <c r="V31" t="n">
-        <v>4738.895856881244</v>
+        <v>987.8726738960652</v>
       </c>
       <c r="W31" t="n">
-        <v>4738.895856881244</v>
+        <v>708.8030094049395</v>
       </c>
       <c r="X31" t="n">
-        <v>4738.895856881244</v>
+        <v>708.8030094049395</v>
       </c>
       <c r="Y31" t="n">
-        <v>4514.160158270009</v>
+        <v>708.8030094049395</v>
       </c>
     </row>
     <row r="32">
@@ -6706,7 +6706,7 @@
         <v>917.7207759499374</v>
       </c>
       <c r="L32" t="n">
-        <v>1651.733671893702</v>
+        <v>1651.733671893703</v>
       </c>
       <c r="M32" t="n">
         <v>2451.887804812203</v>
@@ -6730,22 +6730,22 @@
         <v>4697.247739068497</v>
       </c>
       <c r="T32" t="n">
-        <v>4697.247739068497</v>
+        <v>4475.647541553814</v>
       </c>
       <c r="U32" t="n">
-        <v>4440.198327378967</v>
+        <v>4218.598129864285</v>
       </c>
       <c r="V32" t="n">
-        <v>4090.360772715448</v>
+        <v>4141.200232224397</v>
       </c>
       <c r="W32" t="n">
-        <v>3706.600471850616</v>
+        <v>3757.439931359566</v>
       </c>
       <c r="X32" t="n">
-        <v>3305.957074019569</v>
+        <v>3356.796533528518</v>
       </c>
       <c r="Y32" t="n">
-        <v>2905.020400967659</v>
+        <v>2955.859860476608</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>96.58745462017609</v>
       </c>
       <c r="J33" t="n">
-        <v>96.58745462017609</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K33" t="n">
-        <v>96.58745462017609</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L33" t="n">
-        <v>96.58745462017609</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="M33" t="n">
-        <v>957.9672440179473</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="N33" t="n">
-        <v>1850.515109773175</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="O33" t="n">
-        <v>2138.055429104457</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="P33" t="n">
-        <v>2138.055429104457</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="Q33" t="n">
-        <v>2138.055429104457</v>
+        <v>2103.986497513983</v>
       </c>
       <c r="R33" t="n">
         <v>2138.055429104457</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1183.438499362944</v>
+        <v>1068.960770297817</v>
       </c>
       <c r="C34" t="n">
-        <v>1012.34512692466</v>
+        <v>897.8673978595334</v>
       </c>
       <c r="D34" t="n">
-        <v>852.8504822475704</v>
+        <v>738.3727531824434</v>
       </c>
       <c r="E34" t="n">
-        <v>691.9396671158898</v>
+        <v>577.4619380507628</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3085412264811</v>
+        <v>412.8308121613541</v>
       </c>
       <c r="G34" t="n">
-        <v>360.1202767697272</v>
+        <v>245.6425477046001</v>
       </c>
       <c r="H34" t="n">
-        <v>211.0651836853031</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="I34" t="n">
         <v>96.58745462017609</v>
@@ -6864,10 +6864,10 @@
         <v>276.6016213494227</v>
       </c>
       <c r="L34" t="n">
-        <v>545.551448299124</v>
+        <v>545.5514482991239</v>
       </c>
       <c r="M34" t="n">
-        <v>844.360335726814</v>
+        <v>844.3603357268139</v>
       </c>
       <c r="N34" t="n">
         <v>1134.516994361132</v>
@@ -6882,28 +6882,28 @@
         <v>1686.350778495785</v>
       </c>
       <c r="R34" t="n">
-        <v>1686.350778495785</v>
+        <v>1603.871498818066</v>
       </c>
       <c r="S34" t="n">
-        <v>1686.350778495785</v>
+        <v>1418.562428208302</v>
       </c>
       <c r="T34" t="n">
-        <v>1686.350778495785</v>
+        <v>1293.696468909052</v>
       </c>
       <c r="U34" t="n">
-        <v>1686.350778495785</v>
+        <v>1293.696468909052</v>
       </c>
       <c r="V34" t="n">
-        <v>1686.350778495785</v>
+        <v>1293.696468909052</v>
       </c>
       <c r="W34" t="n">
-        <v>1686.350778495785</v>
+        <v>1293.696468909052</v>
       </c>
       <c r="X34" t="n">
-        <v>1595.873904368224</v>
+        <v>1293.696468909052</v>
       </c>
       <c r="Y34" t="n">
-        <v>1371.138205756988</v>
+        <v>1068.960770297817</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2530.248435478017</v>
+        <v>2545.638680812119</v>
       </c>
       <c r="C35" t="n">
-        <v>2120.123844791287</v>
+        <v>2135.514090125389</v>
       </c>
       <c r="D35" t="n">
-        <v>1715.659914884348</v>
+        <v>1731.05016021845</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.319699401245</v>
+        <v>1316.709944735346</v>
       </c>
       <c r="F35" t="n">
-        <v>880.2892873549322</v>
+        <v>895.679532689034</v>
       </c>
       <c r="G35" t="n">
-        <v>471.6995038847624</v>
+        <v>487.0897492188641</v>
       </c>
       <c r="H35" t="n">
         <v>177.5996714952378</v>
@@ -6937,7 +6937,7 @@
         <v>96.5874546201761</v>
       </c>
       <c r="J35" t="n">
-        <v>362.2940686653948</v>
+        <v>362.2940686653956</v>
       </c>
       <c r="K35" t="n">
         <v>917.7207759499379</v>
@@ -6970,19 +6970,19 @@
         <v>4475.647541553815</v>
       </c>
       <c r="U35" t="n">
-        <v>4475.647541553815</v>
+        <v>4218.598129864286</v>
       </c>
       <c r="V35" t="n">
-        <v>4125.809986890295</v>
+        <v>3868.760575200766</v>
       </c>
       <c r="W35" t="n">
-        <v>3742.049686025464</v>
+        <v>3757.439931359566</v>
       </c>
       <c r="X35" t="n">
-        <v>3341.406288194416</v>
+        <v>3356.796533528518</v>
       </c>
       <c r="Y35" t="n">
-        <v>2940.469615142506</v>
+        <v>2955.859860476608</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>96.5874546201761</v>
       </c>
       <c r="J36" t="n">
-        <v>96.5874546201761</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K36" t="n">
-        <v>96.5874546201761</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L36" t="n">
-        <v>96.5874546201761</v>
+        <v>763.796585316753</v>
       </c>
       <c r="M36" t="n">
-        <v>957.9672440179473</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="N36" t="n">
-        <v>1416.817886091491</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="O36" t="n">
-        <v>2138.055429104457</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="P36" t="n">
-        <v>2138.055429104457</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="Q36" t="n">
-        <v>2138.055429104457</v>
+        <v>2103.986497513983</v>
       </c>
       <c r="R36" t="n">
         <v>2138.055429104457</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>595.7799066468941</v>
+        <v>527.3085412264811</v>
       </c>
       <c r="C37" t="n">
-        <v>424.6865342086106</v>
+        <v>527.3085412264811</v>
       </c>
       <c r="D37" t="n">
-        <v>424.6865342086106</v>
+        <v>527.3085412264811</v>
       </c>
       <c r="E37" t="n">
-        <v>263.7757190769301</v>
+        <v>527.3085412264811</v>
       </c>
       <c r="F37" t="n">
-        <v>263.7757190769301</v>
+        <v>527.3085412264811</v>
       </c>
       <c r="G37" t="n">
-        <v>96.5874546201761</v>
+        <v>360.1202767697272</v>
       </c>
       <c r="H37" t="n">
-        <v>96.5874546201761</v>
+        <v>211.0651836853032</v>
       </c>
       <c r="I37" t="n">
         <v>96.5874546201761</v>
@@ -7101,10 +7101,10 @@
         <v>276.6016213494227</v>
       </c>
       <c r="L37" t="n">
-        <v>545.551448299124</v>
+        <v>545.5514482991239</v>
       </c>
       <c r="M37" t="n">
-        <v>844.360335726814</v>
+        <v>844.3603357268139</v>
       </c>
       <c r="N37" t="n">
         <v>1134.516994361132</v>
@@ -7122,25 +7122,25 @@
         <v>1686.350778495785</v>
       </c>
       <c r="S37" t="n">
-        <v>1686.350778495785</v>
+        <v>1501.041707886021</v>
       </c>
       <c r="T37" t="n">
-        <v>1686.350778495785</v>
+        <v>1501.041707886021</v>
       </c>
       <c r="U37" t="n">
-        <v>1403.556019766511</v>
+        <v>1218.246949156747</v>
       </c>
       <c r="V37" t="n">
-        <v>1246.55917379249</v>
+        <v>944.3612040962689</v>
       </c>
       <c r="W37" t="n">
-        <v>1246.55917379249</v>
+        <v>665.2915396051433</v>
       </c>
       <c r="X37" t="n">
-        <v>1008.215311652174</v>
+        <v>665.2915396051433</v>
       </c>
       <c r="Y37" t="n">
-        <v>783.4796130409385</v>
+        <v>527.3085412264811</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>487.0897492188641</v>
       </c>
       <c r="H38" t="n">
-        <v>177.5996714952377</v>
+        <v>177.5996714952378</v>
       </c>
       <c r="I38" t="n">
-        <v>96.5874546201761</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="J38" t="n">
-        <v>362.2940686653948</v>
+        <v>362.2940686653947</v>
       </c>
       <c r="K38" t="n">
-        <v>917.7207759499377</v>
+        <v>917.7207759499374</v>
       </c>
       <c r="L38" t="n">
         <v>1651.733671893703</v>
@@ -7186,40 +7186,40 @@
         <v>2451.887804812203</v>
       </c>
       <c r="N38" t="n">
-        <v>3229.290047365234</v>
+        <v>3229.290047365233</v>
       </c>
       <c r="O38" t="n">
         <v>3895.792320580214</v>
       </c>
       <c r="P38" t="n">
-        <v>4444.469243587425</v>
+        <v>4444.469243587424</v>
       </c>
       <c r="Q38" t="n">
-        <v>4780.289126484127</v>
+        <v>4780.289126484126</v>
       </c>
       <c r="R38" t="n">
-        <v>4829.372731008805</v>
+        <v>4829.372731008804</v>
       </c>
       <c r="S38" t="n">
-        <v>4697.247739068498</v>
+        <v>4748.087198577447</v>
       </c>
       <c r="T38" t="n">
-        <v>4475.647541553815</v>
+        <v>4748.087198577447</v>
       </c>
       <c r="U38" t="n">
-        <v>4218.598129864286</v>
+        <v>4491.037786887917</v>
       </c>
       <c r="V38" t="n">
-        <v>3868.760575200766</v>
+        <v>4141.200232224397</v>
       </c>
       <c r="W38" t="n">
-        <v>3485.000274335935</v>
+        <v>3757.439931359566</v>
       </c>
       <c r="X38" t="n">
-        <v>3084.356876504887</v>
+        <v>3356.796533528518</v>
       </c>
       <c r="Y38" t="n">
-        <v>2683.420203452977</v>
+        <v>2955.859860476608</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>114.7846454092942</v>
       </c>
       <c r="I39" t="n">
-        <v>96.5874546201761</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="J39" t="n">
-        <v>296.262225774219</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K39" t="n">
         <v>763.796585316753</v>
       </c>
       <c r="L39" t="n">
-        <v>1169.295936678353</v>
+        <v>763.796585316753</v>
       </c>
       <c r="M39" t="n">
-        <v>1169.295936678353</v>
+        <v>763.796585316753</v>
       </c>
       <c r="N39" t="n">
-        <v>1169.295936678353</v>
+        <v>763.796585316753</v>
       </c>
       <c r="O39" t="n">
-        <v>1169.295936678353</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="P39" t="n">
         <v>1744.87091574331</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.9879288147557</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="C40" t="n">
-        <v>852.8504822475704</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="D40" t="n">
-        <v>852.8504822475704</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="E40" t="n">
-        <v>691.9396671158898</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3085412264811</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="G40" t="n">
-        <v>360.1202767697272</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="H40" t="n">
-        <v>211.0651836853032</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="I40" t="n">
-        <v>96.5874546201761</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="J40" t="n">
         <v>114.974948094715</v>
@@ -7338,16 +7338,16 @@
         <v>276.6016213494227</v>
       </c>
       <c r="L40" t="n">
-        <v>545.5514482991241</v>
+        <v>545.551448299124</v>
       </c>
       <c r="M40" t="n">
-        <v>844.3603357268141</v>
+        <v>844.360335726814</v>
       </c>
       <c r="N40" t="n">
         <v>1134.516994361132</v>
       </c>
       <c r="O40" t="n">
-        <v>1402.684171537281</v>
+        <v>1402.68417153728</v>
       </c>
       <c r="P40" t="n">
         <v>1615.724016557157</v>
@@ -7359,25 +7359,25 @@
         <v>1686.350778495785</v>
       </c>
       <c r="S40" t="n">
-        <v>1686.350778495785</v>
+        <v>1634.700472582083</v>
       </c>
       <c r="T40" t="n">
-        <v>1447.067489566308</v>
+        <v>1395.417183652606</v>
       </c>
       <c r="U40" t="n">
-        <v>1447.067489566308</v>
+        <v>1112.622424923332</v>
       </c>
       <c r="V40" t="n">
-        <v>1447.067489566308</v>
+        <v>838.7366798628536</v>
       </c>
       <c r="W40" t="n">
-        <v>1447.067489566308</v>
+        <v>559.667015371728</v>
       </c>
       <c r="X40" t="n">
-        <v>1208.723627425991</v>
+        <v>321.3231532314114</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.9879288147557</v>
+        <v>96.58745462017609</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2137.830993975626</v>
+        <v>2106.011177310823</v>
       </c>
       <c r="C41" t="n">
-        <v>1727.706403288896</v>
+        <v>2051.158116320774</v>
       </c>
       <c r="D41" t="n">
-        <v>1727.706403288896</v>
+        <v>1646.694186413835</v>
       </c>
       <c r="E41" t="n">
-        <v>1313.366187805793</v>
+        <v>1232.353970930732</v>
       </c>
       <c r="F41" t="n">
-        <v>892.3357757594806</v>
+        <v>811.323558884419</v>
       </c>
       <c r="G41" t="n">
-        <v>483.7459922893108</v>
+        <v>402.7337754142491</v>
       </c>
       <c r="H41" t="n">
-        <v>174.2559145656845</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I41" t="n">
         <v>93.24369769062281</v>
       </c>
       <c r="J41" t="n">
-        <v>358.9503117358414</v>
+        <v>244.189826712408</v>
       </c>
       <c r="K41" t="n">
-        <v>914.3770190203843</v>
+        <v>799.6165339969508</v>
       </c>
       <c r="L41" t="n">
-        <v>1484.545825416038</v>
+        <v>1533.629429940716</v>
       </c>
       <c r="M41" t="n">
-        <v>2284.699958334538</v>
+        <v>2333.783562859216</v>
       </c>
       <c r="N41" t="n">
-        <v>3062.102200887569</v>
+        <v>3111.185805412247</v>
       </c>
       <c r="O41" t="n">
-        <v>3728.60447410255</v>
+        <v>3777.688078627228</v>
       </c>
       <c r="P41" t="n">
-        <v>4277.281397109759</v>
+        <v>4326.365001634437</v>
       </c>
       <c r="Q41" t="n">
-        <v>4613.101280006463</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="R41" t="n">
         <v>4662.184884531141</v>
@@ -7444,19 +7444,19 @@
         <v>4308.459695076151</v>
       </c>
       <c r="U41" t="n">
-        <v>4083.230100051424</v>
+        <v>4051.41028338662</v>
       </c>
       <c r="V41" t="n">
-        <v>3733.392545387905</v>
+        <v>3701.572728723101</v>
       </c>
       <c r="W41" t="n">
-        <v>3349.632244523073</v>
+        <v>3317.81242785827</v>
       </c>
       <c r="X41" t="n">
-        <v>2948.988846692026</v>
+        <v>2917.169030027222</v>
       </c>
       <c r="Y41" t="n">
-        <v>2548.052173640116</v>
+        <v>2516.232356975312</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>93.24369769062281</v>
       </c>
       <c r="J42" t="n">
-        <v>292.9184688446657</v>
+        <v>292.9184688446656</v>
       </c>
       <c r="K42" t="n">
-        <v>760.4528283871997</v>
+        <v>760.4528283871996</v>
       </c>
       <c r="L42" t="n">
-        <v>1437.31088250057</v>
+        <v>760.4528283871996</v>
       </c>
       <c r="M42" t="n">
-        <v>1437.31088250057</v>
+        <v>760.4528283871996</v>
       </c>
       <c r="N42" t="n">
-        <v>1525.067761519473</v>
+        <v>760.4528283871996</v>
       </c>
       <c r="O42" t="n">
-        <v>1525.067761519473</v>
+        <v>1165.9521797488</v>
       </c>
       <c r="P42" t="n">
-        <v>2100.642740584429</v>
+        <v>1741.527158813756</v>
       </c>
       <c r="Q42" t="n">
         <v>2100.642740584429</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>596.156460475069</v>
+        <v>574.1181811212095</v>
       </c>
       <c r="C43" t="n">
-        <v>425.0630880367855</v>
+        <v>574.1181811212095</v>
       </c>
       <c r="D43" t="n">
-        <v>425.0630880367855</v>
+        <v>574.1181811212095</v>
       </c>
       <c r="E43" t="n">
-        <v>425.0630880367855</v>
+        <v>574.1181811212095</v>
       </c>
       <c r="F43" t="n">
-        <v>260.4319621473768</v>
+        <v>409.4870552318008</v>
       </c>
       <c r="G43" t="n">
-        <v>93.24369769062281</v>
+        <v>242.2987907750468</v>
       </c>
       <c r="H43" t="n">
         <v>93.24369769062281</v>
@@ -7581,13 +7581,13 @@
         <v>841.0165787972608</v>
       </c>
       <c r="N43" t="n">
-        <v>1131.173237431579</v>
+        <v>1131.173237431578</v>
       </c>
       <c r="O43" t="n">
         <v>1399.340414607727</v>
       </c>
       <c r="P43" t="n">
-        <v>1612.380259627604</v>
+        <v>1612.380259627603</v>
       </c>
       <c r="Q43" t="n">
         <v>1683.007021566232</v>
@@ -7596,25 +7596,25 @@
         <v>1683.007021566232</v>
       </c>
       <c r="S43" t="n">
-        <v>1683.007021566232</v>
+        <v>1497.697950956468</v>
       </c>
       <c r="T43" t="n">
-        <v>1526.005392111791</v>
+        <v>1258.41466202699</v>
       </c>
       <c r="U43" t="n">
-        <v>1526.005392111791</v>
+        <v>975.6199032977158</v>
       </c>
       <c r="V43" t="n">
-        <v>1526.005392111791</v>
+        <v>798.8538797324449</v>
       </c>
       <c r="W43" t="n">
-        <v>1246.935727620665</v>
+        <v>798.8538797324449</v>
       </c>
       <c r="X43" t="n">
-        <v>1008.591865480349</v>
+        <v>798.8538797324449</v>
       </c>
       <c r="Y43" t="n">
-        <v>783.8561668691134</v>
+        <v>574.1181811212095</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>93.24369769062281</v>
       </c>
       <c r="J44" t="n">
-        <v>358.9503117358414</v>
+        <v>244.189826712408</v>
       </c>
       <c r="K44" t="n">
-        <v>914.3770190203843</v>
+        <v>799.6165339969508</v>
       </c>
       <c r="L44" t="n">
-        <v>1648.38991496415</v>
+        <v>1533.629429940716</v>
       </c>
       <c r="M44" t="n">
-        <v>2448.54404788265</v>
+        <v>2333.783562859216</v>
       </c>
       <c r="N44" t="n">
-        <v>3225.946290435681</v>
+        <v>3111.185805412247</v>
       </c>
       <c r="O44" t="n">
-        <v>3892.448563650662</v>
+        <v>3777.688078627228</v>
       </c>
       <c r="P44" t="n">
-        <v>4441.125486657871</v>
+        <v>4326.365001634437</v>
       </c>
       <c r="Q44" t="n">
-        <v>4613.101280006463</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="R44" t="n">
         <v>4662.184884531141</v>
@@ -7678,19 +7678,19 @@
         <v>4530.059892590833</v>
       </c>
       <c r="T44" t="n">
-        <v>4308.459695076151</v>
+        <v>4530.059892590833</v>
       </c>
       <c r="U44" t="n">
-        <v>4051.41028338662</v>
+        <v>4487.694029958364</v>
       </c>
       <c r="V44" t="n">
-        <v>3701.572728723101</v>
+        <v>4137.856475294844</v>
       </c>
       <c r="W44" t="n">
-        <v>3353.159501378103</v>
+        <v>3754.096174430013</v>
       </c>
       <c r="X44" t="n">
-        <v>2952.516103547056</v>
+        <v>3353.452776598966</v>
       </c>
       <c r="Y44" t="n">
         <v>2952.516103547056</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3296.206554726796</v>
+        <v>768.7333423705588</v>
       </c>
       <c r="C45" t="n">
-        <v>3162.211483475741</v>
+        <v>634.7382711195046</v>
       </c>
       <c r="D45" t="n">
-        <v>3045.314325695134</v>
+        <v>517.841113338897</v>
       </c>
       <c r="E45" t="n">
-        <v>2924.821509687462</v>
+        <v>397.348297331225</v>
       </c>
       <c r="F45" t="n">
-        <v>2815.861629869967</v>
+        <v>288.3884175137296</v>
       </c>
       <c r="G45" t="n">
-        <v>2708.945621558148</v>
+        <v>181.4724092019111</v>
       </c>
       <c r="H45" t="n">
-        <v>2638.914100835978</v>
+        <v>111.4408884797409</v>
       </c>
       <c r="I45" t="n">
-        <v>2620.71691004686</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J45" t="n">
-        <v>2820.391681200903</v>
+        <v>292.9184688446656</v>
       </c>
       <c r="K45" t="n">
-        <v>3287.926040743437</v>
+        <v>760.4528283871996</v>
       </c>
       <c r="L45" t="n">
-        <v>3964.784094856807</v>
+        <v>760.4528283871996</v>
       </c>
       <c r="M45" t="n">
-        <v>4628.115952940667</v>
+        <v>760.4528283871996</v>
       </c>
       <c r="N45" t="n">
-        <v>4628.115952940667</v>
+        <v>760.4528283871996</v>
       </c>
       <c r="O45" t="n">
-        <v>4628.115952940667</v>
+        <v>1165.9521797488</v>
       </c>
       <c r="P45" t="n">
-        <v>4628.115952940667</v>
+        <v>1741.527158813756</v>
       </c>
       <c r="Q45" t="n">
-        <v>4628.115952940667</v>
+        <v>2100.642740584429</v>
       </c>
       <c r="R45" t="n">
-        <v>4662.184884531141</v>
+        <v>2134.711672174903</v>
       </c>
       <c r="S45" t="n">
-        <v>4555.571330887662</v>
+        <v>2028.098118531425</v>
       </c>
       <c r="T45" t="n">
-        <v>4396.528159704326</v>
+        <v>1869.054947348089</v>
       </c>
       <c r="U45" t="n">
-        <v>4199.182224130297</v>
+        <v>1671.70901177406</v>
       </c>
       <c r="V45" t="n">
-        <v>3985.470697123331</v>
+        <v>1457.997484767094</v>
       </c>
       <c r="W45" t="n">
-        <v>3772.23752885966</v>
+        <v>1244.764316503423</v>
       </c>
       <c r="X45" t="n">
-        <v>3595.911546998552</v>
+        <v>1068.438334642316</v>
       </c>
       <c r="Y45" t="n">
-        <v>3436.509587362382</v>
+        <v>909.0363750061455</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>264.3370701289063</v>
+        <v>144.8940036043242</v>
       </c>
       <c r="C46" t="n">
-        <v>93.24369769062281</v>
+        <v>144.8940036043242</v>
       </c>
       <c r="D46" t="n">
-        <v>93.24369769062281</v>
+        <v>144.8940036043242</v>
       </c>
       <c r="E46" t="n">
-        <v>93.24369769062281</v>
+        <v>144.8940036043242</v>
       </c>
       <c r="F46" t="n">
         <v>93.24369769062281</v>
@@ -7818,13 +7818,13 @@
         <v>841.0165787972608</v>
       </c>
       <c r="N46" t="n">
-        <v>1131.173237431579</v>
+        <v>1131.173237431578</v>
       </c>
       <c r="O46" t="n">
         <v>1399.340414607727</v>
       </c>
       <c r="P46" t="n">
-        <v>1612.380259627604</v>
+        <v>1612.380259627603</v>
       </c>
       <c r="Q46" t="n">
         <v>1683.007021566232</v>
@@ -7842,16 +7842,16 @@
         <v>1160.92897390748</v>
       </c>
       <c r="V46" t="n">
-        <v>887.0432288470022</v>
+        <v>887.0432288470017</v>
       </c>
       <c r="W46" t="n">
-        <v>607.9735643558765</v>
+        <v>607.9735643558761</v>
       </c>
       <c r="X46" t="n">
-        <v>452.0367765229507</v>
+        <v>369.6297022155595</v>
       </c>
       <c r="Y46" t="n">
-        <v>452.0367765229507</v>
+        <v>144.8940036043242</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432424</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328702</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270708</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>296.1630732760182</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>270.21439869122</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>501.1513772538818</v>
       </c>
       <c r="M3" t="n">
-        <v>558.5343765177352</v>
+        <v>579.6278541084428</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728291</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>549.1401736751965</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8294,25 +8294,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>262.4384495236163</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>529.1545888121299</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
@@ -8455,19 +8455,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770622</v>
       </c>
       <c r="O8" t="n">
-        <v>494.099071146226</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8531,25 +8531,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>170.9271386512359</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>499.2964884458369</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
@@ -8777,22 +8777,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>808.4518367176235</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,25 +9005,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>174.5580808315537</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
@@ -9248,25 +9248,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>449.7806542830903</v>
       </c>
       <c r="M18" t="n">
-        <v>38.97568908871583</v>
+        <v>38.97568908871598</v>
       </c>
       <c r="N18" t="n">
-        <v>34.11281395576047</v>
+        <v>34.11281395576062</v>
       </c>
       <c r="O18" t="n">
-        <v>40.29647650800827</v>
+        <v>40.29647650800841</v>
       </c>
       <c r="P18" t="n">
-        <v>381.952686848495</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>54.44523725909805</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>44.43801295009141</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>43.97921381771112</v>
+        <v>43.97921381771115</v>
       </c>
       <c r="L21" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>38.97568908871594</v>
+        <v>38.97568908871598</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>517.1268347056679</v>
+        <v>40.29647650800841</v>
       </c>
       <c r="P21" t="n">
-        <v>40.25045664277772</v>
+        <v>280.9760645934505</v>
       </c>
       <c r="Q21" t="n">
-        <v>47.32785377080874</v>
+        <v>47.32785377080876</v>
       </c>
       <c r="R21" t="n">
-        <v>54.44523725909808</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>44.43801295009137</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>43.97921381771106</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>484.19371649569</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>38.97568908871587</v>
       </c>
       <c r="N24" t="n">
-        <v>34.11281395576047</v>
+        <v>34.11281395576052</v>
       </c>
       <c r="O24" t="n">
-        <v>548.6097401172394</v>
+        <v>40.2964765080083</v>
       </c>
       <c r="P24" t="n">
-        <v>40.25045664277764</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>47.32785377080868</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>54.44523725909805</v>
+        <v>54.44523725909806</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>44.43801295009137</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>43.97921381771106</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>40.18534987743244</v>
+        <v>484.19371649569</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>38.97568908871587</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>34.11281395576052</v>
       </c>
       <c r="O27" t="n">
-        <v>40.29647650800827</v>
+        <v>40.2964765080083</v>
       </c>
       <c r="P27" t="n">
-        <v>330.6952236440726</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>47.32785377080868</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>54.44523725909805</v>
+        <v>54.44523725909806</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>44.43801295009137</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>43.97921381771106</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>40.18534987743244</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>346.264857081833</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>34.11281395576052</v>
       </c>
       <c r="O30" t="n">
-        <v>330.7412435093032</v>
+        <v>40.2964765080083</v>
       </c>
       <c r="P30" t="n">
-        <v>40.25045664277764</v>
+        <v>40.25045664277768</v>
       </c>
       <c r="Q30" t="n">
-        <v>47.32785377080868</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>54.44523725909805</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>44.43801295009137</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>43.97921381771106</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>40.18534987743244</v>
+        <v>449.7806542830897</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>38.97568908871587</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>34.11281395576052</v>
       </c>
       <c r="O33" t="n">
-        <v>330.7412435093032</v>
+        <v>40.2964765080083</v>
       </c>
       <c r="P33" t="n">
-        <v>40.25045664277764</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>47.32785377080868</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>54.44523725909805</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>44.43801295009137</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>43.97921381771106</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>40.18534987743244</v>
+        <v>40.18534987743248</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>448.5709934943731</v>
       </c>
       <c r="N36" t="n">
-        <v>497.5983109997437</v>
+        <v>34.11281395576052</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>40.2964765080083</v>
       </c>
       <c r="P36" t="n">
-        <v>40.25045664277764</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>47.32785377080868</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>54.44523725909805</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,16 +10907,16 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>449.7806542830893</v>
+        <v>40.18534987743244</v>
       </c>
       <c r="M39" t="n">
-        <v>38.97568908871573</v>
+        <v>38.97568908871582</v>
       </c>
       <c r="N39" t="n">
-        <v>34.11281395576036</v>
+        <v>34.11281395576046</v>
       </c>
       <c r="O39" t="n">
-        <v>40.29647650800816</v>
+        <v>449.8917809136655</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>214.1569109740362</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>649.775610450851</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>78.69905308228653</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,22 +11144,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>40.18534987743244</v>
       </c>
       <c r="M42" t="n">
-        <v>38.97568908871573</v>
+        <v>38.97568908871582</v>
       </c>
       <c r="N42" t="n">
-        <v>122.7561260960662</v>
+        <v>34.11281395576046</v>
       </c>
       <c r="O42" t="n">
-        <v>40.29647650800816</v>
+        <v>449.8917809136655</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>47.32785377080863</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>214.1569109740362</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11317,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>248.939781416506</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>78.69905308228653</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,22 +11381,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>40.18534987743244</v>
       </c>
       <c r="M45" t="n">
-        <v>709.0078689714021</v>
+        <v>38.97568908871582</v>
       </c>
       <c r="N45" t="n">
-        <v>34.11281395576036</v>
+        <v>34.11281395576046</v>
       </c>
       <c r="O45" t="n">
-        <v>40.29647650800816</v>
+        <v>449.8917809136655</v>
       </c>
       <c r="P45" t="n">
-        <v>40.25045664277756</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>47.32785377080863</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>356.9958808389729</v>
+        <v>187.9942390719858</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>142.980293059218</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>123.9640668687252</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>42.06483528720065</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23667,13 +23667,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>87.41008369958243</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>19.83428542084681</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>58.70942372618208</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>80.2020947063111</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>130.8037420209043</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>269.7152604533958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>134.68890647554</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5163818121864</v>
       </c>
       <c r="H19" t="n">
         <v>147.5645421535798</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>113.3329517744758</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>81.65448688094155</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T19" t="n">
-        <v>236.890456040183</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>7.791652410855249</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>269.7152604533961</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>80.2020947063111</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>130.8037420209043</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>58.70942372618077</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24138,16 +24138,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5163818121864</v>
       </c>
       <c r="H22" t="n">
         <v>147.5645421535798</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>113.3329517744758</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>81.65448688094155</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>132.3221770491022</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9668111419812</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.98704835401193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.8037420209043</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>138.9115184324921</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>269.7152604533957</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5163818121864</v>
       </c>
       <c r="H25" t="n">
         <v>147.5645421535798</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>81.65448688094153</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>236.890456040183</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9668111419812</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>163.8389497412339</v>
       </c>
       <c r="W25" t="n">
-        <v>211.0297973315119</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>189.513165747085</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>80.20209470631104</v>
+        <v>80.20209470631106</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>189.5131657470848</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>165.5163818121864</v>
       </c>
       <c r="H28" t="n">
-        <v>96.43073929901536</v>
+        <v>147.5645421535798</v>
       </c>
       <c r="I28" t="n">
-        <v>113.3329517744758</v>
+        <v>62.19914891991137</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>58.70942372618003</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>50.33106491385917</v>
+        <v>80.20209470631106</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.8037420209043</v>
       </c>
       <c r="T29" t="n">
-        <v>219.3841955395356</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>17.88035066021411</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.5645421535798</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S31" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>228.9728375348386</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9668111419812</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50.33106491385973</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.3841955395356</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>269.7152604533954</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>113.3329517744758</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>81.65448688094153</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>236.890456040183</v>
+        <v>113.2731563339256</v>
       </c>
       <c r="U34" t="n">
         <v>279.9668111419812</v>
@@ -25140,7 +25140,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>146.3883181326277</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>15.23634288076073</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.4789175726347</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>269.7152604533948</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.5645421535798</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>113.3329517744758</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>81.65448688094153</v>
       </c>
       <c r="S37" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>236.890456040183</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>115.720010095593</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>85.8851732302474</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>269.7152604533948</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>50.33106491386012</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.3841955395356</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>39.55636661238722</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5163818121864</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.5645421535798</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>113.3329517744758</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>81.65448688094152</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S40" t="n">
-        <v>183.4559799036662</v>
+        <v>132.3221770491017</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9668111419812</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>351.7188143997145</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>80.20209470631104</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.50161849815581</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.5645421535798</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>113.3329517744758</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>81.65448688094152</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S43" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>81.45884288028645</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9668111419812</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>96.148524280255</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.3841955395356</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>212.5367135664899</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>34.99360278463496</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26034,7 +26034,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>111.8510117759503</v>
       </c>
       <c r="G46" t="n">
         <v>165.5163818121864</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>81.65448688094152</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S46" t="n">
         <v>183.4559799036662</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>81.5830035643169</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>712496.2329217739</v>
+        <v>712496.2329217738</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>682632.8681487872</v>
+        <v>682632.8681487874</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>696551.7859972949</v>
+        <v>696551.7859972951</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>681328.2602461665</v>
+        <v>681328.2602461664</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504935.4184006167</v>
+        <v>504935.4184006166</v>
       </c>
       <c r="C2" t="n">
         <v>504935.4184006166</v>
       </c>
       <c r="D2" t="n">
-        <v>504935.4184006165</v>
+        <v>504935.4184006166</v>
       </c>
       <c r="E2" t="n">
         <v>448955.4346793955</v>
@@ -26328,34 +26328,34 @@
         <v>448955.4346793953</v>
       </c>
       <c r="G2" t="n">
+        <v>460847.1405027143</v>
+      </c>
+      <c r="H2" t="n">
         <v>460847.1405027144</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>460847.1405027144</v>
+      </c>
+      <c r="J2" t="n">
+        <v>460847.1405027145</v>
+      </c>
+      <c r="K2" t="n">
+        <v>460847.1405027145</v>
+      </c>
+      <c r="L2" t="n">
+        <v>460847.1405027145</v>
+      </c>
+      <c r="M2" t="n">
         <v>460847.1405027147</v>
       </c>
-      <c r="I2" t="n">
-        <v>460847.1405027145</v>
-      </c>
-      <c r="J2" t="n">
-        <v>460847.1405027147</v>
-      </c>
-      <c r="K2" t="n">
-        <v>460847.1405027148</v>
-      </c>
-      <c r="L2" t="n">
-        <v>460847.1405027147</v>
-      </c>
-      <c r="M2" t="n">
-        <v>460847.1405027146</v>
-      </c>
       <c r="N2" t="n">
-        <v>460847.1405027147</v>
+        <v>460847.1405027144</v>
       </c>
       <c r="O2" t="n">
-        <v>450840.6740373336</v>
+        <v>450840.6740373339</v>
       </c>
       <c r="P2" t="n">
-        <v>450840.6740373336</v>
+        <v>450840.6740373338</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37974.06827759079</v>
+        <v>37974.06827759068</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232373.271303389</v>
+        <v>232373.2713033891</v>
       </c>
       <c r="C4" t="n">
-        <v>232373.271303389</v>
+        <v>232373.2713033891</v>
       </c>
       <c r="D4" t="n">
-        <v>232373.271303389</v>
+        <v>232373.2713033891</v>
       </c>
       <c r="E4" t="n">
         <v>118556.0943854993</v>
@@ -26435,10 +26435,10 @@
         <v>117536.1121862869</v>
       </c>
       <c r="H4" t="n">
+        <v>117536.112186287</v>
+      </c>
+      <c r="I4" t="n">
         <v>117536.1121862869</v>
-      </c>
-      <c r="I4" t="n">
-        <v>117536.112186287</v>
       </c>
       <c r="J4" t="n">
         <v>117536.1121862869</v>
@@ -26456,7 +26456,7 @@
         <v>117536.1121862869</v>
       </c>
       <c r="O4" t="n">
-        <v>114881.606236895</v>
+        <v>114881.6062368951</v>
       </c>
       <c r="P4" t="n">
         <v>114881.6062368951</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26484,7 +26484,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
-        <v>74150.00929732189</v>
+        <v>74150.00929732187</v>
       </c>
       <c r="H5" t="n">
         <v>74150.00929732189</v>
@@ -26505,7 +26505,7 @@
         <v>74150.0092973219</v>
       </c>
       <c r="N5" t="n">
-        <v>74150.0092973219</v>
+        <v>74150.00929732189</v>
       </c>
       <c r="O5" t="n">
         <v>71608.7540308614</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32237.57212561604</v>
+        <v>32237.57212561603</v>
       </c>
       <c r="C6" t="n">
         <v>207193.08201873</v>
@@ -26530,40 +26530,40 @@
         <v>207193.0820187299</v>
       </c>
       <c r="E6" t="n">
-        <v>67404.3671495797</v>
+        <v>67223.78655693054</v>
       </c>
       <c r="F6" t="n">
-        <v>259534.1300490227</v>
+        <v>259353.5494563736</v>
       </c>
       <c r="G6" t="n">
-        <v>231186.9507415148</v>
+        <v>231044.7304902313</v>
       </c>
       <c r="H6" t="n">
-        <v>269161.0190191059</v>
+        <v>269018.798767822</v>
       </c>
       <c r="I6" t="n">
-        <v>269161.0190191056</v>
+        <v>269018.798767822</v>
       </c>
       <c r="J6" t="n">
-        <v>132566.2182132109</v>
+        <v>132423.9979619271</v>
       </c>
       <c r="K6" t="n">
-        <v>269161.0190191059</v>
+        <v>269018.7987678221</v>
       </c>
       <c r="L6" t="n">
-        <v>269161.0190191059</v>
+        <v>269018.7987678221</v>
       </c>
       <c r="M6" t="n">
-        <v>108802.568518423</v>
+        <v>108660.3482671395</v>
       </c>
       <c r="N6" t="n">
-        <v>269161.0190191058</v>
+        <v>269018.798767822</v>
       </c>
       <c r="O6" t="n">
-        <v>264350.3137695772</v>
+        <v>264175.814594212</v>
       </c>
       <c r="P6" t="n">
-        <v>264350.3137695772</v>
+        <v>264175.8145942119</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>34.10751311871852</v>
+        <v>34.10751311871824</v>
       </c>
       <c r="H3" t="n">
-        <v>34.10751311871833</v>
+        <v>34.10751311871824</v>
       </c>
       <c r="I3" t="n">
-        <v>34.10751311871852</v>
+        <v>34.10751311871844</v>
       </c>
       <c r="J3" t="n">
-        <v>34.10751311871852</v>
+        <v>34.10751311871844</v>
       </c>
       <c r="K3" t="n">
-        <v>34.10751311871852</v>
+        <v>34.10751311871844</v>
       </c>
       <c r="L3" t="n">
-        <v>34.10751311871852</v>
+        <v>34.10751311871844</v>
       </c>
       <c r="M3" t="n">
-        <v>34.10751311871852</v>
+        <v>34.10751311871844</v>
       </c>
       <c r="N3" t="n">
-        <v>34.10751311871872</v>
+        <v>34.10751311871853</v>
       </c>
       <c r="O3" t="n">
-        <v>34.10751311871872</v>
+        <v>34.10751311871853</v>
       </c>
       <c r="P3" t="n">
-        <v>34.10751311871872</v>
+        <v>34.10751311871853</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700253</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>34.10751311871852</v>
+        <v>34.10751311871845</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700253</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>41.79696161941615</v>
+        <v>41.79696161941592</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700253</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700253</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>41.79696161941615</v>
+        <v>41.79696161941592</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>39.00870703637952</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>246.8570694469649</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.19236212984248</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>109.5894352477734</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>237.6117313937375</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>322.7998714411859</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -27791,10 +27791,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>81.4933449592549</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>8.56575735292904</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.5250986947254</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27861,10 +27861,10 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>118.0612222666038</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>20.01034219224528</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>235.224277899412</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.137115630628014</v>
+        <v>0.1371156306280129</v>
       </c>
       <c r="H17" t="n">
-        <v>1.404235452169149</v>
+        <v>1.404235452169138</v>
       </c>
       <c r="I17" t="n">
-        <v>5.286150349786517</v>
+        <v>5.286150349786474</v>
       </c>
       <c r="J17" t="n">
-        <v>11.63751775501442</v>
+        <v>11.63751775501432</v>
       </c>
       <c r="K17" t="n">
-        <v>17.44162239949826</v>
+        <v>17.44162239949812</v>
       </c>
       <c r="L17" t="n">
-        <v>21.63787488033035</v>
+        <v>21.63787488033017</v>
       </c>
       <c r="M17" t="n">
-        <v>24.07630497651129</v>
+        <v>24.0763049765111</v>
       </c>
       <c r="N17" t="n">
-        <v>24.46588476203314</v>
+        <v>24.46588476203294</v>
       </c>
       <c r="O17" t="n">
-        <v>23.10244120997582</v>
+        <v>23.10244120997563</v>
       </c>
       <c r="P17" t="n">
-        <v>19.71739907884672</v>
+        <v>19.71739907884656</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.80694555698096</v>
+        <v>14.80694555698084</v>
       </c>
       <c r="R17" t="n">
-        <v>8.613089732436995</v>
+        <v>8.613089732436926</v>
       </c>
       <c r="S17" t="n">
-        <v>3.124522432935874</v>
+        <v>3.124522432935848</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6002236730741318</v>
+        <v>0.6002236730741269</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01096925045024112</v>
+        <v>0.01096925045024103</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07336333010441343</v>
+        <v>0.07336333010441283</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7085353196926245</v>
+        <v>0.7085353196926187</v>
       </c>
       <c r="I18" t="n">
-        <v>2.525886584735287</v>
+        <v>2.525886584735267</v>
       </c>
       <c r="J18" t="n">
-        <v>6.93122584990864</v>
+        <v>6.931225849908583</v>
       </c>
       <c r="K18" t="n">
-        <v>11.84656896690434</v>
+        <v>11.84656896690424</v>
       </c>
       <c r="L18" t="n">
-        <v>15.92917393341661</v>
+        <v>15.92917393341648</v>
       </c>
       <c r="M18" t="n">
-        <v>18.58859464970159</v>
+        <v>18.58859464970144</v>
       </c>
       <c r="N18" t="n">
-        <v>19.08057943798953</v>
+        <v>19.08057943798937</v>
       </c>
       <c r="O18" t="n">
-        <v>17.45500249199173</v>
+        <v>17.45500249199159</v>
       </c>
       <c r="P18" t="n">
-        <v>14.00917836002611</v>
+        <v>14.00917836002599</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.364764734030038</v>
+        <v>9.364764734029961</v>
       </c>
       <c r="R18" t="n">
-        <v>4.554961846307354</v>
+        <v>4.554961846307318</v>
       </c>
       <c r="S18" t="n">
-        <v>1.36269167979031</v>
+        <v>1.362691679790299</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2957057033594558</v>
+        <v>0.2957057033594533</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004826534875290359</v>
+        <v>0.00482653487529032</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06150535152555799</v>
+        <v>0.06150535152555749</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5468384890181432</v>
+        <v>0.5468384890181388</v>
       </c>
       <c r="I19" t="n">
-        <v>1.849633662241326</v>
+        <v>1.849633662241311</v>
       </c>
       <c r="J19" t="n">
-        <v>4.348428352856949</v>
+        <v>4.348428352856914</v>
       </c>
       <c r="K19" t="n">
-        <v>7.14580356815119</v>
+        <v>7.145803568151131</v>
       </c>
       <c r="L19" t="n">
-        <v>9.144168353172503</v>
+        <v>9.14416835317243</v>
       </c>
       <c r="M19" t="n">
-        <v>9.641243421410874</v>
+        <v>9.641243421410795</v>
       </c>
       <c r="N19" t="n">
-        <v>9.411996202088348</v>
+        <v>9.411996202088272</v>
       </c>
       <c r="O19" t="n">
-        <v>8.693501868357963</v>
+        <v>8.693501868357892</v>
       </c>
       <c r="P19" t="n">
-        <v>7.438792697236574</v>
+        <v>7.438792697236513</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.150234480926497</v>
+        <v>5.150234480926454</v>
       </c>
       <c r="R19" t="n">
-        <v>2.765504260412816</v>
+        <v>2.765504260412793</v>
       </c>
       <c r="S19" t="n">
-        <v>1.071870535222678</v>
+        <v>1.07187053522267</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2627955928819295</v>
+        <v>0.2627955928819274</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00335483735593953</v>
+        <v>0.003354837355939503</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1371156306280133</v>
+        <v>0.1371156306280129</v>
       </c>
       <c r="H20" t="n">
-        <v>1.404235452169141</v>
+        <v>1.404235452169138</v>
       </c>
       <c r="I20" t="n">
-        <v>5.286150349786487</v>
+        <v>5.286150349786474</v>
       </c>
       <c r="J20" t="n">
-        <v>11.63751775501435</v>
+        <v>11.63751775501432</v>
       </c>
       <c r="K20" t="n">
-        <v>17.44162239949816</v>
+        <v>17.44162239949812</v>
       </c>
       <c r="L20" t="n">
-        <v>21.63787488033023</v>
+        <v>21.63787488033017</v>
       </c>
       <c r="M20" t="n">
-        <v>24.07630497651116</v>
+        <v>24.0763049765111</v>
       </c>
       <c r="N20" t="n">
-        <v>24.465884762033</v>
+        <v>24.46588476203294</v>
       </c>
       <c r="O20" t="n">
-        <v>23.10244120997569</v>
+        <v>23.10244120997563</v>
       </c>
       <c r="P20" t="n">
-        <v>19.71739907884661</v>
+        <v>19.71739907884656</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.80694555698088</v>
+        <v>14.80694555698084</v>
       </c>
       <c r="R20" t="n">
-        <v>8.613089732436947</v>
+        <v>8.613089732436926</v>
       </c>
       <c r="S20" t="n">
-        <v>3.124522432935856</v>
+        <v>3.124522432935848</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6002236730741285</v>
+        <v>0.6002236730741269</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01096925045024106</v>
+        <v>0.01096925045024103</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07336333010441301</v>
+        <v>0.07336333010441283</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7085353196926205</v>
+        <v>0.7085353196926187</v>
       </c>
       <c r="I21" t="n">
-        <v>2.525886584735273</v>
+        <v>2.525886584735267</v>
       </c>
       <c r="J21" t="n">
-        <v>6.931225849908601</v>
+        <v>6.931225849908583</v>
       </c>
       <c r="K21" t="n">
-        <v>11.84656896690427</v>
+        <v>11.84656896690424</v>
       </c>
       <c r="L21" t="n">
-        <v>15.92917393341652</v>
+        <v>15.92917393341648</v>
       </c>
       <c r="M21" t="n">
-        <v>18.58859464970149</v>
+        <v>18.58859464970144</v>
       </c>
       <c r="N21" t="n">
-        <v>19.08057943798942</v>
+        <v>19.08057943798937</v>
       </c>
       <c r="O21" t="n">
-        <v>17.45500249199164</v>
+        <v>17.45500249199159</v>
       </c>
       <c r="P21" t="n">
-        <v>14.00917836002603</v>
+        <v>14.00917836002599</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.364764734029984</v>
+        <v>9.364764734029961</v>
       </c>
       <c r="R21" t="n">
-        <v>4.554961846307329</v>
+        <v>4.554961846307318</v>
       </c>
       <c r="S21" t="n">
-        <v>1.362691679790302</v>
+        <v>1.362691679790299</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2957057033594541</v>
+        <v>0.2957057033594533</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004826534875290332</v>
+        <v>0.00482653487529032</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06150535152555764</v>
+        <v>0.06150535152555749</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5468384890181401</v>
+        <v>0.5468384890181388</v>
       </c>
       <c r="I22" t="n">
-        <v>1.849633662241316</v>
+        <v>1.849633662241311</v>
       </c>
       <c r="J22" t="n">
-        <v>4.348428352856925</v>
+        <v>4.348428352856914</v>
       </c>
       <c r="K22" t="n">
-        <v>7.145803568151149</v>
+        <v>7.145803568151131</v>
       </c>
       <c r="L22" t="n">
-        <v>9.144168353172452</v>
+        <v>9.14416835317243</v>
       </c>
       <c r="M22" t="n">
-        <v>9.64124342141082</v>
+        <v>9.641243421410795</v>
       </c>
       <c r="N22" t="n">
-        <v>9.411996202088295</v>
+        <v>9.411996202088272</v>
       </c>
       <c r="O22" t="n">
-        <v>8.693501868357913</v>
+        <v>8.693501868357892</v>
       </c>
       <c r="P22" t="n">
-        <v>7.438792697236532</v>
+        <v>7.438792697236513</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.150234480926468</v>
+        <v>5.150234480926454</v>
       </c>
       <c r="R22" t="n">
-        <v>2.7655042604128</v>
+        <v>2.765504260412793</v>
       </c>
       <c r="S22" t="n">
-        <v>1.071870535222672</v>
+        <v>1.07187053522267</v>
       </c>
       <c r="T22" t="n">
-        <v>0.262795592881928</v>
+        <v>0.2627955928819274</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003354837355939511</v>
+        <v>0.003354837355939503</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.137115630628014</v>
+        <v>0.1371156306280137</v>
       </c>
       <c r="H23" t="n">
-        <v>1.404235452169149</v>
+        <v>1.404235452169146</v>
       </c>
       <c r="I23" t="n">
-        <v>5.286150349786517</v>
+        <v>5.286150349786505</v>
       </c>
       <c r="J23" t="n">
-        <v>11.63751775501442</v>
+        <v>11.63751775501439</v>
       </c>
       <c r="K23" t="n">
-        <v>17.44162239949826</v>
+        <v>17.44162239949822</v>
       </c>
       <c r="L23" t="n">
-        <v>21.63787488033035</v>
+        <v>21.6378748803303</v>
       </c>
       <c r="M23" t="n">
-        <v>24.07630497651129</v>
+        <v>24.07630497651123</v>
       </c>
       <c r="N23" t="n">
-        <v>24.46588476203314</v>
+        <v>24.46588476203308</v>
       </c>
       <c r="O23" t="n">
-        <v>23.10244120997582</v>
+        <v>23.10244120997577</v>
       </c>
       <c r="P23" t="n">
-        <v>19.71739907884672</v>
+        <v>19.71739907884668</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.80694555698096</v>
+        <v>14.80694555698093</v>
       </c>
       <c r="R23" t="n">
-        <v>8.613089732436995</v>
+        <v>8.613089732436976</v>
       </c>
       <c r="S23" t="n">
-        <v>3.124522432935874</v>
+        <v>3.124522432935866</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6002236730741318</v>
+        <v>0.6002236730741305</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01096925045024112</v>
+        <v>0.0109692504502411</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07336333010441343</v>
+        <v>0.07336333010441326</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7085353196926245</v>
+        <v>0.708535319692623</v>
       </c>
       <c r="I24" t="n">
-        <v>2.525886584735287</v>
+        <v>2.525886584735281</v>
       </c>
       <c r="J24" t="n">
-        <v>6.93122584990864</v>
+        <v>6.931225849908624</v>
       </c>
       <c r="K24" t="n">
-        <v>11.84656896690434</v>
+        <v>11.84656896690431</v>
       </c>
       <c r="L24" t="n">
-        <v>15.92917393341661</v>
+        <v>15.92917393341657</v>
       </c>
       <c r="M24" t="n">
-        <v>18.58859464970159</v>
+        <v>18.58859464970155</v>
       </c>
       <c r="N24" t="n">
-        <v>19.08057943798953</v>
+        <v>19.08057943798948</v>
       </c>
       <c r="O24" t="n">
-        <v>17.45500249199173</v>
+        <v>17.45500249199169</v>
       </c>
       <c r="P24" t="n">
-        <v>14.00917836002611</v>
+        <v>14.00917836002607</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.364764734030038</v>
+        <v>9.364764734030016</v>
       </c>
       <c r="R24" t="n">
-        <v>4.554961846307354</v>
+        <v>4.554961846307345</v>
       </c>
       <c r="S24" t="n">
-        <v>1.36269167979031</v>
+        <v>1.362691679790307</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2957057033594558</v>
+        <v>0.2957057033594551</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004826534875290359</v>
+        <v>0.004826534875290348</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06150535152555799</v>
+        <v>0.06150535152555784</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5468384890181432</v>
+        <v>0.5468384890181419</v>
       </c>
       <c r="I25" t="n">
-        <v>1.849633662241326</v>
+        <v>1.849633662241322</v>
       </c>
       <c r="J25" t="n">
-        <v>4.348428352856949</v>
+        <v>4.348428352856939</v>
       </c>
       <c r="K25" t="n">
-        <v>7.14580356815119</v>
+        <v>7.145803568151173</v>
       </c>
       <c r="L25" t="n">
-        <v>9.144168353172503</v>
+        <v>9.144168353172484</v>
       </c>
       <c r="M25" t="n">
-        <v>9.641243421410874</v>
+        <v>9.641243421410852</v>
       </c>
       <c r="N25" t="n">
-        <v>9.411996202088348</v>
+        <v>9.411996202088327</v>
       </c>
       <c r="O25" t="n">
-        <v>8.693501868357963</v>
+        <v>8.693501868357943</v>
       </c>
       <c r="P25" t="n">
-        <v>7.438792697236574</v>
+        <v>7.438792697236557</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.150234480926497</v>
+        <v>5.150234480926485</v>
       </c>
       <c r="R25" t="n">
-        <v>2.765504260412816</v>
+        <v>2.765504260412809</v>
       </c>
       <c r="S25" t="n">
-        <v>1.071870535222678</v>
+        <v>1.071870535222676</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2627955928819295</v>
+        <v>0.2627955928819289</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00335483735593953</v>
+        <v>0.003354837355939522</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.137115630628014</v>
+        <v>0.1371156306280137</v>
       </c>
       <c r="H26" t="n">
-        <v>1.404235452169149</v>
+        <v>1.404235452169146</v>
       </c>
       <c r="I26" t="n">
-        <v>5.286150349786517</v>
+        <v>5.286150349786505</v>
       </c>
       <c r="J26" t="n">
-        <v>11.63751775501442</v>
+        <v>11.63751775501439</v>
       </c>
       <c r="K26" t="n">
-        <v>17.44162239949826</v>
+        <v>17.44162239949822</v>
       </c>
       <c r="L26" t="n">
-        <v>21.63787488033035</v>
+        <v>21.6378748803303</v>
       </c>
       <c r="M26" t="n">
-        <v>24.07630497651129</v>
+        <v>24.07630497651123</v>
       </c>
       <c r="N26" t="n">
-        <v>24.46588476203314</v>
+        <v>24.46588476203308</v>
       </c>
       <c r="O26" t="n">
-        <v>23.10244120997582</v>
+        <v>23.10244120997577</v>
       </c>
       <c r="P26" t="n">
-        <v>19.71739907884672</v>
+        <v>19.71739907884668</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.80694555698096</v>
+        <v>14.80694555698093</v>
       </c>
       <c r="R26" t="n">
-        <v>8.613089732436995</v>
+        <v>8.613089732436976</v>
       </c>
       <c r="S26" t="n">
-        <v>3.124522432935874</v>
+        <v>3.124522432935866</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6002236730741318</v>
+        <v>0.6002236730741305</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01096925045024112</v>
+        <v>0.0109692504502411</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07336333010441343</v>
+        <v>0.07336333010441326</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7085353196926245</v>
+        <v>0.708535319692623</v>
       </c>
       <c r="I27" t="n">
-        <v>2.525886584735287</v>
+        <v>2.525886584735281</v>
       </c>
       <c r="J27" t="n">
-        <v>6.93122584990864</v>
+        <v>6.931225849908624</v>
       </c>
       <c r="K27" t="n">
-        <v>11.84656896690434</v>
+        <v>11.84656896690431</v>
       </c>
       <c r="L27" t="n">
-        <v>15.92917393341661</v>
+        <v>15.92917393341657</v>
       </c>
       <c r="M27" t="n">
-        <v>18.58859464970159</v>
+        <v>18.58859464970155</v>
       </c>
       <c r="N27" t="n">
-        <v>19.08057943798953</v>
+        <v>19.08057943798948</v>
       </c>
       <c r="O27" t="n">
-        <v>17.45500249199173</v>
+        <v>17.45500249199169</v>
       </c>
       <c r="P27" t="n">
-        <v>14.00917836002611</v>
+        <v>14.00917836002607</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.364764734030038</v>
+        <v>9.364764734030016</v>
       </c>
       <c r="R27" t="n">
-        <v>4.554961846307354</v>
+        <v>4.554961846307345</v>
       </c>
       <c r="S27" t="n">
-        <v>1.36269167979031</v>
+        <v>1.362691679790307</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2957057033594558</v>
+        <v>0.2957057033594551</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004826534875290359</v>
+        <v>0.004826534875290348</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06150535152555799</v>
+        <v>0.06150535152555784</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5468384890181432</v>
+        <v>0.5468384890181419</v>
       </c>
       <c r="I28" t="n">
-        <v>1.849633662241326</v>
+        <v>1.849633662241322</v>
       </c>
       <c r="J28" t="n">
-        <v>4.348428352856949</v>
+        <v>4.348428352856939</v>
       </c>
       <c r="K28" t="n">
-        <v>7.14580356815119</v>
+        <v>7.145803568151173</v>
       </c>
       <c r="L28" t="n">
-        <v>9.144168353172503</v>
+        <v>9.144168353172484</v>
       </c>
       <c r="M28" t="n">
-        <v>9.641243421410874</v>
+        <v>9.641243421410852</v>
       </c>
       <c r="N28" t="n">
-        <v>9.411996202088348</v>
+        <v>9.411996202088327</v>
       </c>
       <c r="O28" t="n">
-        <v>8.693501868357963</v>
+        <v>8.693501868357943</v>
       </c>
       <c r="P28" t="n">
-        <v>7.438792697236574</v>
+        <v>7.438792697236557</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.150234480926497</v>
+        <v>5.150234480926485</v>
       </c>
       <c r="R28" t="n">
-        <v>2.765504260412816</v>
+        <v>2.765504260412809</v>
       </c>
       <c r="S28" t="n">
-        <v>1.071870535222678</v>
+        <v>1.071870535222676</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2627955928819295</v>
+        <v>0.2627955928819289</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00335483735593953</v>
+        <v>0.003354837355939522</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.137115630628014</v>
+        <v>0.1371156306280137</v>
       </c>
       <c r="H29" t="n">
-        <v>1.404235452169149</v>
+        <v>1.404235452169146</v>
       </c>
       <c r="I29" t="n">
-        <v>5.286150349786517</v>
+        <v>5.286150349786505</v>
       </c>
       <c r="J29" t="n">
-        <v>11.63751775501442</v>
+        <v>11.63751775501439</v>
       </c>
       <c r="K29" t="n">
-        <v>17.44162239949826</v>
+        <v>17.44162239949822</v>
       </c>
       <c r="L29" t="n">
-        <v>21.63787488033035</v>
+        <v>21.6378748803303</v>
       </c>
       <c r="M29" t="n">
-        <v>24.07630497651129</v>
+        <v>24.07630497651123</v>
       </c>
       <c r="N29" t="n">
-        <v>24.46588476203314</v>
+        <v>24.46588476203308</v>
       </c>
       <c r="O29" t="n">
-        <v>23.10244120997582</v>
+        <v>23.10244120997577</v>
       </c>
       <c r="P29" t="n">
-        <v>19.71739907884672</v>
+        <v>19.71739907884668</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.80694555698096</v>
+        <v>14.80694555698093</v>
       </c>
       <c r="R29" t="n">
-        <v>8.613089732436995</v>
+        <v>8.613089732436976</v>
       </c>
       <c r="S29" t="n">
-        <v>3.124522432935874</v>
+        <v>3.124522432935866</v>
       </c>
       <c r="T29" t="n">
-        <v>0.6002236730741318</v>
+        <v>0.6002236730741305</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01096925045024112</v>
+        <v>0.0109692504502411</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07336333010441343</v>
+        <v>0.07336333010441326</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7085353196926245</v>
+        <v>0.708535319692623</v>
       </c>
       <c r="I30" t="n">
-        <v>2.525886584735287</v>
+        <v>2.525886584735281</v>
       </c>
       <c r="J30" t="n">
-        <v>6.93122584990864</v>
+        <v>6.931225849908624</v>
       </c>
       <c r="K30" t="n">
-        <v>11.84656896690434</v>
+        <v>11.84656896690431</v>
       </c>
       <c r="L30" t="n">
-        <v>15.92917393341661</v>
+        <v>15.92917393341657</v>
       </c>
       <c r="M30" t="n">
-        <v>18.58859464970159</v>
+        <v>18.58859464970155</v>
       </c>
       <c r="N30" t="n">
-        <v>19.08057943798953</v>
+        <v>19.08057943798948</v>
       </c>
       <c r="O30" t="n">
-        <v>17.45500249199173</v>
+        <v>17.45500249199169</v>
       </c>
       <c r="P30" t="n">
-        <v>14.00917836002611</v>
+        <v>14.00917836002607</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.364764734030038</v>
+        <v>9.364764734030016</v>
       </c>
       <c r="R30" t="n">
-        <v>4.554961846307354</v>
+        <v>4.554961846307345</v>
       </c>
       <c r="S30" t="n">
-        <v>1.36269167979031</v>
+        <v>1.362691679790307</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2957057033594558</v>
+        <v>0.2957057033594551</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004826534875290359</v>
+        <v>0.004826534875290348</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06150535152555799</v>
+        <v>0.06150535152555784</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5468384890181432</v>
+        <v>0.5468384890181419</v>
       </c>
       <c r="I31" t="n">
-        <v>1.849633662241326</v>
+        <v>1.849633662241322</v>
       </c>
       <c r="J31" t="n">
-        <v>4.348428352856949</v>
+        <v>4.348428352856939</v>
       </c>
       <c r="K31" t="n">
-        <v>7.14580356815119</v>
+        <v>7.145803568151173</v>
       </c>
       <c r="L31" t="n">
-        <v>9.144168353172503</v>
+        <v>9.144168353172484</v>
       </c>
       <c r="M31" t="n">
-        <v>9.641243421410874</v>
+        <v>9.641243421410852</v>
       </c>
       <c r="N31" t="n">
-        <v>9.411996202088348</v>
+        <v>9.411996202088327</v>
       </c>
       <c r="O31" t="n">
-        <v>8.693501868357963</v>
+        <v>8.693501868357943</v>
       </c>
       <c r="P31" t="n">
-        <v>7.438792697236574</v>
+        <v>7.438792697236557</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.150234480926497</v>
+        <v>5.150234480926485</v>
       </c>
       <c r="R31" t="n">
-        <v>2.765504260412816</v>
+        <v>2.765504260412809</v>
       </c>
       <c r="S31" t="n">
-        <v>1.071870535222678</v>
+        <v>1.071870535222676</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2627955928819295</v>
+        <v>0.2627955928819289</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00335483735593953</v>
+        <v>0.003354837355939522</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.137115630628014</v>
+        <v>0.1371156306280137</v>
       </c>
       <c r="H32" t="n">
-        <v>1.404235452169149</v>
+        <v>1.404235452169146</v>
       </c>
       <c r="I32" t="n">
-        <v>5.286150349786517</v>
+        <v>5.286150349786505</v>
       </c>
       <c r="J32" t="n">
-        <v>11.63751775501442</v>
+        <v>11.63751775501439</v>
       </c>
       <c r="K32" t="n">
-        <v>17.44162239949826</v>
+        <v>17.44162239949822</v>
       </c>
       <c r="L32" t="n">
-        <v>21.63787488033035</v>
+        <v>21.6378748803303</v>
       </c>
       <c r="M32" t="n">
-        <v>24.07630497651129</v>
+        <v>24.07630497651123</v>
       </c>
       <c r="N32" t="n">
-        <v>24.46588476203314</v>
+        <v>24.46588476203308</v>
       </c>
       <c r="O32" t="n">
-        <v>23.10244120997582</v>
+        <v>23.10244120997577</v>
       </c>
       <c r="P32" t="n">
-        <v>19.71739907884672</v>
+        <v>19.71739907884668</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.80694555698096</v>
+        <v>14.80694555698093</v>
       </c>
       <c r="R32" t="n">
-        <v>8.613089732436995</v>
+        <v>8.613089732436976</v>
       </c>
       <c r="S32" t="n">
-        <v>3.124522432935874</v>
+        <v>3.124522432935866</v>
       </c>
       <c r="T32" t="n">
-        <v>0.6002236730741318</v>
+        <v>0.6002236730741305</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01096925045024112</v>
+        <v>0.0109692504502411</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07336333010441343</v>
+        <v>0.07336333010441326</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7085353196926245</v>
+        <v>0.708535319692623</v>
       </c>
       <c r="I33" t="n">
-        <v>2.525886584735287</v>
+        <v>2.525886584735281</v>
       </c>
       <c r="J33" t="n">
-        <v>6.93122584990864</v>
+        <v>6.931225849908624</v>
       </c>
       <c r="K33" t="n">
-        <v>11.84656896690434</v>
+        <v>11.84656896690431</v>
       </c>
       <c r="L33" t="n">
-        <v>15.92917393341661</v>
+        <v>15.92917393341657</v>
       </c>
       <c r="M33" t="n">
-        <v>18.58859464970159</v>
+        <v>18.58859464970155</v>
       </c>
       <c r="N33" t="n">
-        <v>19.08057943798953</v>
+        <v>19.08057943798948</v>
       </c>
       <c r="O33" t="n">
-        <v>17.45500249199173</v>
+        <v>17.45500249199169</v>
       </c>
       <c r="P33" t="n">
-        <v>14.00917836002611</v>
+        <v>14.00917836002607</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.364764734030038</v>
+        <v>9.364764734030016</v>
       </c>
       <c r="R33" t="n">
-        <v>4.554961846307354</v>
+        <v>4.554961846307345</v>
       </c>
       <c r="S33" t="n">
-        <v>1.36269167979031</v>
+        <v>1.362691679790307</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2957057033594558</v>
+        <v>0.2957057033594551</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004826534875290359</v>
+        <v>0.004826534875290348</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06150535152555799</v>
+        <v>0.06150535152555784</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5468384890181432</v>
+        <v>0.5468384890181419</v>
       </c>
       <c r="I34" t="n">
-        <v>1.849633662241326</v>
+        <v>1.849633662241322</v>
       </c>
       <c r="J34" t="n">
-        <v>4.348428352856949</v>
+        <v>4.348428352856939</v>
       </c>
       <c r="K34" t="n">
-        <v>7.14580356815119</v>
+        <v>7.145803568151173</v>
       </c>
       <c r="L34" t="n">
-        <v>9.144168353172503</v>
+        <v>9.144168353172484</v>
       </c>
       <c r="M34" t="n">
-        <v>9.641243421410874</v>
+        <v>9.641243421410852</v>
       </c>
       <c r="N34" t="n">
-        <v>9.411996202088348</v>
+        <v>9.411996202088327</v>
       </c>
       <c r="O34" t="n">
-        <v>8.693501868357963</v>
+        <v>8.693501868357943</v>
       </c>
       <c r="P34" t="n">
-        <v>7.438792697236574</v>
+        <v>7.438792697236557</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.150234480926497</v>
+        <v>5.150234480926485</v>
       </c>
       <c r="R34" t="n">
-        <v>2.765504260412816</v>
+        <v>2.765504260412809</v>
       </c>
       <c r="S34" t="n">
-        <v>1.071870535222678</v>
+        <v>1.071870535222676</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2627955928819295</v>
+        <v>0.2627955928819289</v>
       </c>
       <c r="U34" t="n">
-        <v>0.00335483735593953</v>
+        <v>0.003354837355939522</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.137115630628014</v>
+        <v>0.1371156306280137</v>
       </c>
       <c r="H35" t="n">
-        <v>1.404235452169149</v>
+        <v>1.404235452169146</v>
       </c>
       <c r="I35" t="n">
-        <v>5.286150349786517</v>
+        <v>5.286150349786505</v>
       </c>
       <c r="J35" t="n">
-        <v>11.63751775501442</v>
+        <v>11.63751775501439</v>
       </c>
       <c r="K35" t="n">
-        <v>17.44162239949826</v>
+        <v>17.44162239949822</v>
       </c>
       <c r="L35" t="n">
-        <v>21.63787488033035</v>
+        <v>21.6378748803303</v>
       </c>
       <c r="M35" t="n">
-        <v>24.07630497651129</v>
+        <v>24.07630497651123</v>
       </c>
       <c r="N35" t="n">
-        <v>24.46588476203314</v>
+        <v>24.46588476203308</v>
       </c>
       <c r="O35" t="n">
-        <v>23.10244120997582</v>
+        <v>23.10244120997577</v>
       </c>
       <c r="P35" t="n">
-        <v>19.71739907884672</v>
+        <v>19.71739907884668</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.80694555698096</v>
+        <v>14.80694555698093</v>
       </c>
       <c r="R35" t="n">
-        <v>8.613089732436995</v>
+        <v>8.613089732436976</v>
       </c>
       <c r="S35" t="n">
-        <v>3.124522432935874</v>
+        <v>3.124522432935866</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6002236730741318</v>
+        <v>0.6002236730741305</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01096925045024112</v>
+        <v>0.0109692504502411</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07336333010441343</v>
+        <v>0.07336333010441326</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7085353196926245</v>
+        <v>0.708535319692623</v>
       </c>
       <c r="I36" t="n">
-        <v>2.525886584735287</v>
+        <v>2.525886584735281</v>
       </c>
       <c r="J36" t="n">
-        <v>6.93122584990864</v>
+        <v>6.931225849908624</v>
       </c>
       <c r="K36" t="n">
-        <v>11.84656896690434</v>
+        <v>11.84656896690431</v>
       </c>
       <c r="L36" t="n">
-        <v>15.92917393341661</v>
+        <v>15.92917393341657</v>
       </c>
       <c r="M36" t="n">
-        <v>18.58859464970159</v>
+        <v>18.58859464970155</v>
       </c>
       <c r="N36" t="n">
-        <v>19.08057943798953</v>
+        <v>19.08057943798948</v>
       </c>
       <c r="O36" t="n">
-        <v>17.45500249199173</v>
+        <v>17.45500249199169</v>
       </c>
       <c r="P36" t="n">
-        <v>14.00917836002611</v>
+        <v>14.00917836002607</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.364764734030038</v>
+        <v>9.364764734030016</v>
       </c>
       <c r="R36" t="n">
-        <v>4.554961846307354</v>
+        <v>4.554961846307345</v>
       </c>
       <c r="S36" t="n">
-        <v>1.36269167979031</v>
+        <v>1.362691679790307</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2957057033594558</v>
+        <v>0.2957057033594551</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004826534875290359</v>
+        <v>0.004826534875290348</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06150535152555799</v>
+        <v>0.06150535152555784</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5468384890181432</v>
+        <v>0.5468384890181419</v>
       </c>
       <c r="I37" t="n">
-        <v>1.849633662241326</v>
+        <v>1.849633662241322</v>
       </c>
       <c r="J37" t="n">
-        <v>4.348428352856949</v>
+        <v>4.348428352856939</v>
       </c>
       <c r="K37" t="n">
-        <v>7.14580356815119</v>
+        <v>7.145803568151173</v>
       </c>
       <c r="L37" t="n">
-        <v>9.144168353172503</v>
+        <v>9.144168353172484</v>
       </c>
       <c r="M37" t="n">
-        <v>9.641243421410874</v>
+        <v>9.641243421410852</v>
       </c>
       <c r="N37" t="n">
-        <v>9.411996202088348</v>
+        <v>9.411996202088327</v>
       </c>
       <c r="O37" t="n">
-        <v>8.693501868357963</v>
+        <v>8.693501868357943</v>
       </c>
       <c r="P37" t="n">
-        <v>7.438792697236574</v>
+        <v>7.438792697236557</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.150234480926497</v>
+        <v>5.150234480926485</v>
       </c>
       <c r="R37" t="n">
-        <v>2.765504260412816</v>
+        <v>2.765504260412809</v>
       </c>
       <c r="S37" t="n">
-        <v>1.071870535222678</v>
+        <v>1.071870535222676</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2627955928819295</v>
+        <v>0.2627955928819289</v>
       </c>
       <c r="U37" t="n">
-        <v>0.00335483735593953</v>
+        <v>0.003354837355939522</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1371156306280149</v>
+        <v>0.1371156306280141</v>
       </c>
       <c r="H38" t="n">
-        <v>1.404235452169158</v>
+        <v>1.40423545216915</v>
       </c>
       <c r="I38" t="n">
-        <v>5.286150349786547</v>
+        <v>5.286150349786518</v>
       </c>
       <c r="J38" t="n">
-        <v>11.63751775501449</v>
+        <v>11.63751775501442</v>
       </c>
       <c r="K38" t="n">
-        <v>17.44162239949836</v>
+        <v>17.44162239949826</v>
       </c>
       <c r="L38" t="n">
-        <v>21.63787488033047</v>
+        <v>21.63787488033035</v>
       </c>
       <c r="M38" t="n">
-        <v>24.07630497651143</v>
+        <v>24.0763049765113</v>
       </c>
       <c r="N38" t="n">
-        <v>24.46588476203328</v>
+        <v>24.46588476203314</v>
       </c>
       <c r="O38" t="n">
-        <v>23.10244120997596</v>
+        <v>23.10244120997583</v>
       </c>
       <c r="P38" t="n">
-        <v>19.71739907884684</v>
+        <v>19.71739907884673</v>
       </c>
       <c r="Q38" t="n">
-        <v>14.80694555698105</v>
+        <v>14.80694555698097</v>
       </c>
       <c r="R38" t="n">
-        <v>8.613089732437047</v>
+        <v>8.613089732436997</v>
       </c>
       <c r="S38" t="n">
-        <v>3.124522432935892</v>
+        <v>3.124522432935874</v>
       </c>
       <c r="T38" t="n">
-        <v>0.6002236730741354</v>
+        <v>0.6002236730741319</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01096925045024119</v>
+        <v>0.01096925045024112</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07336333010441386</v>
+        <v>0.07336333010441344</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7085353196926286</v>
+        <v>0.7085353196926246</v>
       </c>
       <c r="I39" t="n">
-        <v>2.525886584735302</v>
+        <v>2.525886584735288</v>
       </c>
       <c r="J39" t="n">
-        <v>6.93122584990868</v>
+        <v>6.931225849908642</v>
       </c>
       <c r="K39" t="n">
-        <v>11.84656896690441</v>
+        <v>11.84656896690434</v>
       </c>
       <c r="L39" t="n">
-        <v>15.9291739334167</v>
+        <v>15.92917393341661</v>
       </c>
       <c r="M39" t="n">
-        <v>18.5885946497017</v>
+        <v>18.58859464970159</v>
       </c>
       <c r="N39" t="n">
-        <v>19.08057943798964</v>
+        <v>19.08057943798953</v>
       </c>
       <c r="O39" t="n">
-        <v>17.45500249199183</v>
+        <v>17.45500249199173</v>
       </c>
       <c r="P39" t="n">
-        <v>14.00917836002619</v>
+        <v>14.00917836002611</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.364764734030093</v>
+        <v>9.36476473403004</v>
       </c>
       <c r="R39" t="n">
-        <v>4.554961846307381</v>
+        <v>4.554961846307355</v>
       </c>
       <c r="S39" t="n">
-        <v>1.362691679790318</v>
+        <v>1.36269167979031</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2957057033594575</v>
+        <v>0.2957057033594558</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004826534875290387</v>
+        <v>0.00482653487529036</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06150535152555834</v>
+        <v>0.06150535152555799</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5468384890181464</v>
+        <v>0.5468384890181434</v>
       </c>
       <c r="I40" t="n">
-        <v>1.849633662241337</v>
+        <v>1.849633662241327</v>
       </c>
       <c r="J40" t="n">
-        <v>4.348428352856975</v>
+        <v>4.34842835285695</v>
       </c>
       <c r="K40" t="n">
-        <v>7.145803568151232</v>
+        <v>7.145803568151191</v>
       </c>
       <c r="L40" t="n">
-        <v>9.144168353172557</v>
+        <v>9.144168353172505</v>
       </c>
       <c r="M40" t="n">
-        <v>9.64124342141093</v>
+        <v>9.641243421410877</v>
       </c>
       <c r="N40" t="n">
-        <v>9.411996202088403</v>
+        <v>9.41199620208835</v>
       </c>
       <c r="O40" t="n">
-        <v>8.693501868358013</v>
+        <v>8.693501868357965</v>
       </c>
       <c r="P40" t="n">
-        <v>7.438792697236617</v>
+        <v>7.438792697236575</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.150234480926526</v>
+        <v>5.150234480926498</v>
       </c>
       <c r="R40" t="n">
-        <v>2.765504260412832</v>
+        <v>2.765504260412816</v>
       </c>
       <c r="S40" t="n">
-        <v>1.071870535222684</v>
+        <v>1.071870535222678</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2627955928819311</v>
+        <v>0.2627955928819296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.00335483735593955</v>
+        <v>0.003354837355939531</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1371156306280149</v>
+        <v>0.1371156306280141</v>
       </c>
       <c r="H41" t="n">
-        <v>1.404235452169158</v>
+        <v>1.40423545216915</v>
       </c>
       <c r="I41" t="n">
-        <v>5.286150349786547</v>
+        <v>5.286150349786518</v>
       </c>
       <c r="J41" t="n">
-        <v>11.63751775501449</v>
+        <v>11.63751775501442</v>
       </c>
       <c r="K41" t="n">
-        <v>17.44162239949836</v>
+        <v>17.44162239949826</v>
       </c>
       <c r="L41" t="n">
-        <v>21.63787488033047</v>
+        <v>21.63787488033035</v>
       </c>
       <c r="M41" t="n">
-        <v>24.07630497651143</v>
+        <v>24.0763049765113</v>
       </c>
       <c r="N41" t="n">
-        <v>24.46588476203328</v>
+        <v>24.46588476203314</v>
       </c>
       <c r="O41" t="n">
-        <v>23.10244120997596</v>
+        <v>23.10244120997583</v>
       </c>
       <c r="P41" t="n">
-        <v>19.71739907884684</v>
+        <v>19.71739907884673</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.80694555698105</v>
+        <v>14.80694555698097</v>
       </c>
       <c r="R41" t="n">
-        <v>8.613089732437047</v>
+        <v>8.613089732436997</v>
       </c>
       <c r="S41" t="n">
-        <v>3.124522432935892</v>
+        <v>3.124522432935874</v>
       </c>
       <c r="T41" t="n">
-        <v>0.6002236730741354</v>
+        <v>0.6002236730741319</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01096925045024119</v>
+        <v>0.01096925045024112</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07336333010441386</v>
+        <v>0.07336333010441344</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7085353196926286</v>
+        <v>0.7085353196926246</v>
       </c>
       <c r="I42" t="n">
-        <v>2.525886584735302</v>
+        <v>2.525886584735288</v>
       </c>
       <c r="J42" t="n">
-        <v>6.93122584990868</v>
+        <v>6.931225849908642</v>
       </c>
       <c r="K42" t="n">
-        <v>11.84656896690441</v>
+        <v>11.84656896690434</v>
       </c>
       <c r="L42" t="n">
-        <v>15.9291739334167</v>
+        <v>15.92917393341661</v>
       </c>
       <c r="M42" t="n">
-        <v>18.5885946497017</v>
+        <v>18.58859464970159</v>
       </c>
       <c r="N42" t="n">
-        <v>19.08057943798964</v>
+        <v>19.08057943798953</v>
       </c>
       <c r="O42" t="n">
-        <v>17.45500249199183</v>
+        <v>17.45500249199173</v>
       </c>
       <c r="P42" t="n">
-        <v>14.00917836002619</v>
+        <v>14.00917836002611</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.364764734030093</v>
+        <v>9.36476473403004</v>
       </c>
       <c r="R42" t="n">
-        <v>4.554961846307381</v>
+        <v>4.554961846307355</v>
       </c>
       <c r="S42" t="n">
-        <v>1.362691679790318</v>
+        <v>1.36269167979031</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2957057033594575</v>
+        <v>0.2957057033594558</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004826534875290387</v>
+        <v>0.00482653487529036</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06150535152555834</v>
+        <v>0.06150535152555799</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5468384890181464</v>
+        <v>0.5468384890181434</v>
       </c>
       <c r="I43" t="n">
-        <v>1.849633662241337</v>
+        <v>1.849633662241327</v>
       </c>
       <c r="J43" t="n">
-        <v>4.348428352856975</v>
+        <v>4.34842835285695</v>
       </c>
       <c r="K43" t="n">
-        <v>7.145803568151232</v>
+        <v>7.145803568151191</v>
       </c>
       <c r="L43" t="n">
-        <v>9.144168353172557</v>
+        <v>9.144168353172505</v>
       </c>
       <c r="M43" t="n">
-        <v>9.64124342141093</v>
+        <v>9.641243421410877</v>
       </c>
       <c r="N43" t="n">
-        <v>9.411996202088403</v>
+        <v>9.41199620208835</v>
       </c>
       <c r="O43" t="n">
-        <v>8.693501868358013</v>
+        <v>8.693501868357965</v>
       </c>
       <c r="P43" t="n">
-        <v>7.438792697236617</v>
+        <v>7.438792697236575</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.150234480926526</v>
+        <v>5.150234480926498</v>
       </c>
       <c r="R43" t="n">
-        <v>2.765504260412832</v>
+        <v>2.765504260412816</v>
       </c>
       <c r="S43" t="n">
-        <v>1.071870535222684</v>
+        <v>1.071870535222678</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2627955928819311</v>
+        <v>0.2627955928819296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.00335483735593955</v>
+        <v>0.003354837355939531</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1371156306280149</v>
+        <v>0.1371156306280141</v>
       </c>
       <c r="H44" t="n">
-        <v>1.404235452169158</v>
+        <v>1.40423545216915</v>
       </c>
       <c r="I44" t="n">
-        <v>5.286150349786547</v>
+        <v>5.286150349786518</v>
       </c>
       <c r="J44" t="n">
-        <v>11.63751775501449</v>
+        <v>11.63751775501442</v>
       </c>
       <c r="K44" t="n">
-        <v>17.44162239949836</v>
+        <v>17.44162239949826</v>
       </c>
       <c r="L44" t="n">
-        <v>21.63787488033047</v>
+        <v>21.63787488033035</v>
       </c>
       <c r="M44" t="n">
-        <v>24.07630497651143</v>
+        <v>24.0763049765113</v>
       </c>
       <c r="N44" t="n">
-        <v>24.46588476203328</v>
+        <v>24.46588476203314</v>
       </c>
       <c r="O44" t="n">
-        <v>23.10244120997596</v>
+        <v>23.10244120997583</v>
       </c>
       <c r="P44" t="n">
-        <v>19.71739907884684</v>
+        <v>19.71739907884673</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.80694555698105</v>
+        <v>14.80694555698097</v>
       </c>
       <c r="R44" t="n">
-        <v>8.613089732437047</v>
+        <v>8.613089732436997</v>
       </c>
       <c r="S44" t="n">
-        <v>3.124522432935892</v>
+        <v>3.124522432935874</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6002236730741354</v>
+        <v>0.6002236730741319</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01096925045024119</v>
+        <v>0.01096925045024112</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07336333010441386</v>
+        <v>0.07336333010441344</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7085353196926286</v>
+        <v>0.7085353196926246</v>
       </c>
       <c r="I45" t="n">
-        <v>2.525886584735302</v>
+        <v>2.525886584735288</v>
       </c>
       <c r="J45" t="n">
-        <v>6.93122584990868</v>
+        <v>6.931225849908642</v>
       </c>
       <c r="K45" t="n">
-        <v>11.84656896690441</v>
+        <v>11.84656896690434</v>
       </c>
       <c r="L45" t="n">
-        <v>15.9291739334167</v>
+        <v>15.92917393341661</v>
       </c>
       <c r="M45" t="n">
-        <v>18.5885946497017</v>
+        <v>18.58859464970159</v>
       </c>
       <c r="N45" t="n">
-        <v>19.08057943798964</v>
+        <v>19.08057943798953</v>
       </c>
       <c r="O45" t="n">
-        <v>17.45500249199183</v>
+        <v>17.45500249199173</v>
       </c>
       <c r="P45" t="n">
-        <v>14.00917836002619</v>
+        <v>14.00917836002611</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.364764734030093</v>
+        <v>9.36476473403004</v>
       </c>
       <c r="R45" t="n">
-        <v>4.554961846307381</v>
+        <v>4.554961846307355</v>
       </c>
       <c r="S45" t="n">
-        <v>1.362691679790318</v>
+        <v>1.36269167979031</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2957057033594575</v>
+        <v>0.2957057033594558</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004826534875290387</v>
+        <v>0.00482653487529036</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06150535152555834</v>
+        <v>0.06150535152555799</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5468384890181464</v>
+        <v>0.5468384890181434</v>
       </c>
       <c r="I46" t="n">
-        <v>1.849633662241337</v>
+        <v>1.849633662241327</v>
       </c>
       <c r="J46" t="n">
-        <v>4.348428352856975</v>
+        <v>4.34842835285695</v>
       </c>
       <c r="K46" t="n">
-        <v>7.145803568151232</v>
+        <v>7.145803568151191</v>
       </c>
       <c r="L46" t="n">
-        <v>9.144168353172557</v>
+        <v>9.144168353172505</v>
       </c>
       <c r="M46" t="n">
-        <v>9.64124342141093</v>
+        <v>9.641243421410877</v>
       </c>
       <c r="N46" t="n">
-        <v>9.411996202088403</v>
+        <v>9.41199620208835</v>
       </c>
       <c r="O46" t="n">
-        <v>8.693501868358013</v>
+        <v>8.693501868357965</v>
       </c>
       <c r="P46" t="n">
-        <v>7.438792697236617</v>
+        <v>7.438792697236575</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.150234480926526</v>
+        <v>5.150234480926498</v>
       </c>
       <c r="R46" t="n">
-        <v>2.765504260412832</v>
+        <v>2.765504260412816</v>
       </c>
       <c r="S46" t="n">
-        <v>1.071870535222684</v>
+        <v>1.071870535222678</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2627955928819311</v>
+        <v>0.2627955928819296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00335483735593955</v>
+        <v>0.003354837355939531</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700253</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700253</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700253</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193989</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>445.0368534430327</v>
       </c>
       <c r="M3" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700253</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700253</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>209.2450561298663</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>474.8949538093261</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
@@ -35175,19 +35175,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="O8" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>445.0368534430332</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>755.2584433238735</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>121.3646874378037</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>268.3905192375945</v>
+        <v>268.3905192375944</v>
       </c>
       <c r="K17" t="n">
-        <v>561.0370780651947</v>
+        <v>561.0370780651946</v>
       </c>
       <c r="L17" t="n">
-        <v>741.4271676199647</v>
+        <v>741.4271676199645</v>
       </c>
       <c r="M17" t="n">
-        <v>808.2364978974749</v>
+        <v>808.2364978974747</v>
       </c>
       <c r="N17" t="n">
-        <v>785.2547904576069</v>
+        <v>785.2547904576066</v>
       </c>
       <c r="O17" t="n">
-        <v>673.2346194090717</v>
+        <v>673.2346194090715</v>
       </c>
       <c r="P17" t="n">
-        <v>554.2191141486967</v>
+        <v>554.2191141486966</v>
       </c>
       <c r="Q17" t="n">
-        <v>339.2120029259628</v>
+        <v>339.2120029259627</v>
       </c>
       <c r="R17" t="n">
-        <v>49.5793985097752</v>
+        <v>49.57939850977512</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>201.6916880343867</v>
+        <v>201.6916880343866</v>
       </c>
       <c r="K18" t="n">
-        <v>472.2569288308424</v>
+        <v>472.2569288308423</v>
       </c>
       <c r="L18" t="n">
-        <v>683.6950041549198</v>
+        <v>409.5953044056577</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.7022302057173</v>
+        <v>581.3888677423796</v>
       </c>
       <c r="Q18" t="n">
-        <v>362.7430118895688</v>
+        <v>362.7430118895687</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>34.41306221260014</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.57322573185748</v>
+        <v>18.57322573185744</v>
       </c>
       <c r="K19" t="n">
         <v>163.2592659138461</v>
       </c>
       <c r="L19" t="n">
-        <v>271.6664918683852</v>
+        <v>271.6664918683851</v>
       </c>
       <c r="M19" t="n">
         <v>301.8271590178687</v>
@@ -36056,13 +36056,13 @@
         <v>293.0875339740583</v>
       </c>
       <c r="O19" t="n">
-        <v>270.8759365415642</v>
+        <v>270.8759365415641</v>
       </c>
       <c r="P19" t="n">
-        <v>215.19176264634</v>
+        <v>215.1917626463399</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.34016357437179</v>
+        <v>71.34016357437174</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>268.3905192375944</v>
       </c>
       <c r="K20" t="n">
-        <v>561.0370780651947</v>
+        <v>561.0370780651946</v>
       </c>
       <c r="L20" t="n">
         <v>741.4271676199645</v>
       </c>
       <c r="M20" t="n">
-        <v>808.2364978974748</v>
+        <v>808.2364978974747</v>
       </c>
       <c r="N20" t="n">
-        <v>785.2547904576068</v>
+        <v>785.2547904576066</v>
       </c>
       <c r="O20" t="n">
-        <v>673.2346194090716</v>
+        <v>673.2346194090715</v>
       </c>
       <c r="P20" t="n">
         <v>554.2191141486966</v>
@@ -36144,7 +36144,7 @@
         <v>339.2120029259627</v>
       </c>
       <c r="R20" t="n">
-        <v>49.57939850977515</v>
+        <v>49.57939850977512</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>201.6916880343866</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>683.6950041549198</v>
+        <v>683.6950041549197</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>901.5635007628559</v>
       </c>
       <c r="O21" t="n">
-        <v>476.8303581976595</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>240.7256079506727</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>34.41306221260014</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>18.57322573185745</v>
+        <v>18.57322573185744</v>
       </c>
       <c r="K22" t="n">
         <v>163.2592659138461</v>
       </c>
       <c r="L22" t="n">
-        <v>271.6664918683852</v>
+        <v>271.6664918683851</v>
       </c>
       <c r="M22" t="n">
         <v>301.8271590178687</v>
@@ -36299,7 +36299,7 @@
         <v>215.1917626463399</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.34016357437176</v>
+        <v>71.34016357437174</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>561.0370780651947</v>
       </c>
       <c r="L23" t="n">
-        <v>741.4271676199647</v>
+        <v>741.4271676199646</v>
       </c>
       <c r="M23" t="n">
-        <v>808.2364978974749</v>
+        <v>808.2364978974748</v>
       </c>
       <c r="N23" t="n">
-        <v>785.2547904576069</v>
+        <v>785.2547904576068</v>
       </c>
       <c r="O23" t="n">
-        <v>673.2346194090717</v>
+        <v>673.2346194090716</v>
       </c>
       <c r="P23" t="n">
         <v>554.2191141486967</v>
       </c>
       <c r="Q23" t="n">
-        <v>339.2120029259628</v>
+        <v>339.2120029259627</v>
       </c>
       <c r="R23" t="n">
-        <v>49.5793985097752</v>
+        <v>49.57939850977517</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L24" t="n">
-        <v>683.6950041549198</v>
+        <v>444.0083666182575</v>
       </c>
       <c r="M24" t="n">
-        <v>870.080595351284</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>508.3132636092311</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>18.57322573185748</v>
+        <v>18.57322573185747</v>
       </c>
       <c r="K25" t="n">
         <v>163.2592659138461</v>
@@ -36536,7 +36536,7 @@
         <v>215.19176264634</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.34016357437179</v>
+        <v>71.34016357437177</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>561.0370780651947</v>
       </c>
       <c r="L26" t="n">
-        <v>741.4271676199647</v>
+        <v>741.4271676199646</v>
       </c>
       <c r="M26" t="n">
-        <v>808.2364978974749</v>
+        <v>808.2364978974748</v>
       </c>
       <c r="N26" t="n">
-        <v>785.2547904576069</v>
+        <v>785.2547904576068</v>
       </c>
       <c r="O26" t="n">
-        <v>673.2346194090717</v>
+        <v>673.2346194090716</v>
       </c>
       <c r="P26" t="n">
         <v>554.2191141486967</v>
       </c>
       <c r="Q26" t="n">
-        <v>339.2120029259628</v>
+        <v>339.2120029259627</v>
       </c>
       <c r="R26" t="n">
-        <v>49.5793985097752</v>
+        <v>49.57939850977517</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>444.0083666182575</v>
       </c>
       <c r="M27" t="n">
-        <v>870.080595351284</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>901.5635007628561</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>290.444767001295</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>18.57322573185748</v>
+        <v>18.57322573185747</v>
       </c>
       <c r="K28" t="n">
         <v>163.2592659138461</v>
@@ -36773,7 +36773,7 @@
         <v>215.19176264634</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.34016357437179</v>
+        <v>71.34016357437177</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>561.0370780651947</v>
       </c>
       <c r="L29" t="n">
-        <v>741.4271676199647</v>
+        <v>741.4271676199646</v>
       </c>
       <c r="M29" t="n">
-        <v>808.2364978974749</v>
+        <v>808.2364978974748</v>
       </c>
       <c r="N29" t="n">
-        <v>785.2547904576069</v>
+        <v>785.2547904576068</v>
       </c>
       <c r="O29" t="n">
-        <v>673.2346194090717</v>
+        <v>673.2346194090716</v>
       </c>
       <c r="P29" t="n">
         <v>554.2191141486967</v>
       </c>
       <c r="Q29" t="n">
-        <v>339.2120029259628</v>
+        <v>339.2120029259627</v>
       </c>
       <c r="R29" t="n">
-        <v>49.5793985097752</v>
+        <v>49.57939850977517</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>683.6950041549198</v>
       </c>
       <c r="M30" t="n">
-        <v>870.080595351284</v>
+        <v>307.2891679931171</v>
       </c>
       <c r="N30" t="n">
-        <v>901.5635007628561</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>290.444767001295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>34.41306221260017</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.57322573185748</v>
+        <v>18.57322573185747</v>
       </c>
       <c r="K31" t="n">
         <v>163.2592659138461</v>
@@ -37010,7 +37010,7 @@
         <v>215.19176264634</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.34016357437179</v>
+        <v>71.34016357437177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>561.0370780651947</v>
       </c>
       <c r="L32" t="n">
-        <v>741.4271676199647</v>
+        <v>741.4271676199646</v>
       </c>
       <c r="M32" t="n">
-        <v>808.2364978974749</v>
+        <v>808.2364978974748</v>
       </c>
       <c r="N32" t="n">
-        <v>785.2547904576069</v>
+        <v>785.2547904576068</v>
       </c>
       <c r="O32" t="n">
-        <v>673.2346194090717</v>
+        <v>673.2346194090716</v>
       </c>
       <c r="P32" t="n">
         <v>554.2191141486967</v>
       </c>
       <c r="Q32" t="n">
-        <v>339.2120029259628</v>
+        <v>339.2120029259627</v>
       </c>
       <c r="R32" t="n">
-        <v>49.5793985097752</v>
+        <v>49.57939850977517</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>409.5953044056573</v>
       </c>
       <c r="M33" t="n">
-        <v>870.080595351284</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>901.5635007628561</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>290.444767001295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>34.41306221260017</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>18.57322573185748</v>
+        <v>18.57322573185747</v>
       </c>
       <c r="K34" t="n">
         <v>163.2592659138461</v>
@@ -37247,7 +37247,7 @@
         <v>215.19176264634</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.34016357437179</v>
+        <v>71.34016357437177</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>561.0370780651947</v>
       </c>
       <c r="L35" t="n">
-        <v>741.4271676199647</v>
+        <v>741.4271676199646</v>
       </c>
       <c r="M35" t="n">
-        <v>808.2364978974749</v>
+        <v>808.2364978974748</v>
       </c>
       <c r="N35" t="n">
-        <v>785.2547904576069</v>
+        <v>785.2547904576068</v>
       </c>
       <c r="O35" t="n">
-        <v>673.2346194090717</v>
+        <v>673.2346194090716</v>
       </c>
       <c r="P35" t="n">
         <v>554.2191141486967</v>
       </c>
       <c r="Q35" t="n">
-        <v>339.2120029259628</v>
+        <v>339.2120029259627</v>
       </c>
       <c r="R35" t="n">
-        <v>49.5793985097752</v>
+        <v>49.57939850977517</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>870.080595351284</v>
+        <v>409.5953044056573</v>
       </c>
       <c r="N36" t="n">
-        <v>463.4854970439832</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>728.5227707201678</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>34.41306221260017</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>18.57322573185748</v>
+        <v>18.57322573185747</v>
       </c>
       <c r="K37" t="n">
         <v>163.2592659138461</v>
@@ -37484,7 +37484,7 @@
         <v>215.19176264634</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.34016357437179</v>
+        <v>71.34016357437177</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>268.3905192375946</v>
+        <v>268.3905192375945</v>
       </c>
       <c r="K38" t="n">
-        <v>561.0370780651948</v>
+        <v>561.0370780651947</v>
       </c>
       <c r="L38" t="n">
-        <v>741.4271676199648</v>
+        <v>741.4271676199647</v>
       </c>
       <c r="M38" t="n">
-        <v>808.236497897475</v>
+        <v>808.2364978974749</v>
       </c>
       <c r="N38" t="n">
-        <v>785.254790457607</v>
+        <v>785.2547904576069</v>
       </c>
       <c r="O38" t="n">
-        <v>673.2346194090718</v>
+        <v>673.2346194090717</v>
       </c>
       <c r="P38" t="n">
-        <v>554.2191141486968</v>
+        <v>554.2191141486967</v>
       </c>
       <c r="Q38" t="n">
-        <v>339.2120029259629</v>
+        <v>339.2120029259628</v>
       </c>
       <c r="R38" t="n">
-        <v>49.57939850977525</v>
+        <v>49.5793985097752</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>201.6916880343867</v>
       </c>
       <c r="K39" t="n">
-        <v>472.2569288308425</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L39" t="n">
-        <v>409.595304405657</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>409.5953044056573</v>
       </c>
       <c r="P39" t="n">
-        <v>581.3888677423798</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q39" t="n">
         <v>362.7430118895688</v>
       </c>
       <c r="R39" t="n">
-        <v>34.4130622126002</v>
+        <v>34.41306221260018</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>18.5732257318575</v>
+        <v>18.57322573185748</v>
       </c>
       <c r="K40" t="n">
         <v>163.2592659138461</v>
       </c>
       <c r="L40" t="n">
-        <v>271.6664918683853</v>
+        <v>271.6664918683852</v>
       </c>
       <c r="M40" t="n">
-        <v>301.8271590178688</v>
+        <v>301.8271590178687</v>
       </c>
       <c r="N40" t="n">
-        <v>293.0875339740584</v>
+        <v>293.0875339740583</v>
       </c>
       <c r="O40" t="n">
         <v>270.8759365415642</v>
@@ -37721,7 +37721,7 @@
         <v>215.19176264634</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.34016357437181</v>
+        <v>71.34016357437179</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>268.3905192375946</v>
+        <v>152.4708373957426</v>
       </c>
       <c r="K41" t="n">
-        <v>561.0370780651948</v>
+        <v>561.0370780651947</v>
       </c>
       <c r="L41" t="n">
-        <v>575.9280872683366</v>
+        <v>741.4271676199647</v>
       </c>
       <c r="M41" t="n">
-        <v>808.236497897475</v>
+        <v>808.2364978974749</v>
       </c>
       <c r="N41" t="n">
-        <v>785.254790457607</v>
+        <v>785.2547904576069</v>
       </c>
       <c r="O41" t="n">
-        <v>673.2346194090718</v>
+        <v>673.2346194090717</v>
       </c>
       <c r="P41" t="n">
-        <v>554.2191141486968</v>
+        <v>554.2191141486967</v>
       </c>
       <c r="Q41" t="n">
-        <v>339.2120029259629</v>
+        <v>339.2120029259628</v>
       </c>
       <c r="R41" t="n">
-        <v>49.57939850977525</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>201.6916880343867</v>
       </c>
       <c r="K42" t="n">
-        <v>472.2569288308425</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L42" t="n">
-        <v>683.69500415492</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>88.6433121403058</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>409.5953044056573</v>
       </c>
       <c r="P42" t="n">
-        <v>581.3888677423798</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R42" t="n">
-        <v>34.4130622126002</v>
+        <v>34.41306221260018</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>18.5732257318575</v>
+        <v>18.57322573185748</v>
       </c>
       <c r="K43" t="n">
         <v>163.2592659138461</v>
       </c>
       <c r="L43" t="n">
-        <v>271.6664918683853</v>
+        <v>271.6664918683852</v>
       </c>
       <c r="M43" t="n">
-        <v>301.8271590178688</v>
+        <v>301.8271590178687</v>
       </c>
       <c r="N43" t="n">
-        <v>293.0875339740584</v>
+        <v>293.0875339740583</v>
       </c>
       <c r="O43" t="n">
         <v>270.8759365415642</v>
@@ -37958,7 +37958,7 @@
         <v>215.19176264634</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.34016357437181</v>
+        <v>71.34016357437179</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>268.3905192375946</v>
+        <v>152.4708373957426</v>
       </c>
       <c r="K44" t="n">
-        <v>561.0370780651948</v>
+        <v>561.0370780651947</v>
       </c>
       <c r="L44" t="n">
-        <v>741.4271676199648</v>
+        <v>741.4271676199647</v>
       </c>
       <c r="M44" t="n">
-        <v>808.236497897475</v>
+        <v>808.2364978974749</v>
       </c>
       <c r="N44" t="n">
-        <v>785.254790457607</v>
+        <v>785.2547904576069</v>
       </c>
       <c r="O44" t="n">
-        <v>673.2346194090718</v>
+        <v>673.2346194090717</v>
       </c>
       <c r="P44" t="n">
-        <v>554.2191141486968</v>
+        <v>554.2191141486967</v>
       </c>
       <c r="Q44" t="n">
-        <v>173.712922574335</v>
+        <v>339.2120029259628</v>
       </c>
       <c r="R44" t="n">
-        <v>49.57939850977525</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>201.6916880343867</v>
       </c>
       <c r="K45" t="n">
-        <v>472.2569288308425</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L45" t="n">
-        <v>683.69500415492</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>670.0321798826864</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>409.5953044056573</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R45" t="n">
-        <v>34.4130622126002</v>
+        <v>34.41306221260018</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>18.5732257318575</v>
+        <v>18.57322573185748</v>
       </c>
       <c r="K46" t="n">
         <v>163.2592659138461</v>
       </c>
       <c r="L46" t="n">
-        <v>271.6664918683853</v>
+        <v>271.6664918683852</v>
       </c>
       <c r="M46" t="n">
-        <v>301.8271590178688</v>
+        <v>301.8271590178687</v>
       </c>
       <c r="N46" t="n">
-        <v>293.0875339740584</v>
+        <v>293.0875339740583</v>
       </c>
       <c r="O46" t="n">
         <v>270.8759365415642</v>
@@ -38195,7 +38195,7 @@
         <v>215.19176264634</v>
       </c>
       <c r="Q46" t="n">
-        <v>71.34016357437181</v>
+        <v>71.34016357437179</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
